--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ffda80931a57275/Models Backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="584" documentId="8_{8DFF9E9D-0AF2-C142-9CA2-38C3DB35F028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45BD0950-508A-491A-8157-F9DD79CB36C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772FC1A-C9E4-4F64-B674-AECE83CE5E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="5550" windowWidth="20580" windowHeight="7860" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34095" yWindow="1500" windowWidth="33000" windowHeight="18960" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -396,8 +396,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -427,16 +427,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>149087</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>101462</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -451,8 +451,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8983317" y="57150"/>
-          <a:ext cx="0" cy="10528024"/>
+          <a:off x="10354865" y="170260"/>
+          <a:ext cx="0" cy="10539671"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -827,7 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD04C5-FAB4-8B42-B6A2-F2686B3BB573}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>70.7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
@@ -849,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -861,7 +863,7 @@
       </c>
       <c r="G4" s="3">
         <f>G3*G2</f>
-        <v>193859.4</v>
+        <v>219680</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -869,11 +871,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <f>21383+519</f>
-        <v>21902</v>
+        <v>7350</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -881,11 +882,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <f>72110+3749</f>
-        <v>75859</v>
+        <v>90919</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
       </c>
       <c r="G7" s="3">
         <f>G4-G5+G6</f>
-        <v>247816.4</v>
+        <v>303249</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -911,11 +911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
   <dimension ref="A1:DQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="W9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AG31" sqref="AG31"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="X61" sqref="X61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -938,387 +938,403 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>6947</v>
-      </c>
-      <c r="H2" s="5">
-        <v>7112</v>
-      </c>
-      <c r="I2" s="5">
-        <v>7252</v>
-      </c>
-      <c r="J2" s="5">
-        <v>7389</v>
-      </c>
-      <c r="K2" s="5">
-        <v>7371</v>
-      </c>
-      <c r="L2" s="5">
-        <v>7554</v>
-      </c>
-      <c r="M2" s="5">
-        <v>7637</v>
-      </c>
-      <c r="N2" s="5">
-        <v>7612</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="5">
-        <v>26707</v>
-      </c>
-      <c r="V2" s="5">
-        <v>27392</v>
-      </c>
-      <c r="W2" s="5">
-        <v>28700</v>
-      </c>
-      <c r="X2" s="5">
-        <v>30174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>886</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1092</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1276</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2144</v>
-      </c>
-      <c r="K3" s="5">
-        <v>813</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1237</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1289</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2539</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="U3" s="5">
-        <v>5855</v>
-      </c>
-      <c r="V3" s="5">
-        <v>5127</v>
-      </c>
-      <c r="W3" s="5">
-        <v>5399</v>
-      </c>
-      <c r="X3" s="5">
-        <v>5878</v>
+    <row r="2" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
+        <v>44074</v>
+      </c>
+      <c r="H2" s="12">
+        <v>44165</v>
+      </c>
+      <c r="I2" s="12">
+        <v>44255</v>
+      </c>
+      <c r="J2" s="12">
+        <v>44347</v>
+      </c>
+      <c r="K2" s="12">
+        <v>44439</v>
+      </c>
+      <c r="L2" s="12">
+        <v>44530</v>
+      </c>
+      <c r="M2" s="12">
+        <v>44620</v>
+      </c>
+      <c r="N2" s="12">
+        <v>44712</v>
+      </c>
+      <c r="O2" s="12">
+        <f>+K2+365</f>
+        <v>44804</v>
+      </c>
+      <c r="P2" s="12">
+        <f t="shared" ref="P2:R2" si="0">+L2+365</f>
+        <v>44895</v>
+      </c>
+      <c r="Q2" s="12">
+        <f t="shared" si="0"/>
+        <v>44985</v>
+      </c>
+      <c r="R2" s="12">
+        <f t="shared" si="0"/>
+        <v>45077</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12">
+        <v>43251</v>
+      </c>
+      <c r="U2" s="12">
+        <v>43616</v>
+      </c>
+      <c r="V2" s="12">
+        <v>43982</v>
+      </c>
+      <c r="W2" s="12">
+        <v>44347</v>
+      </c>
+      <c r="X2" s="12">
+        <v>44712</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>X2+365</f>
+        <v>45077</v>
+      </c>
+      <c r="Z2" s="12">
+        <f>Y2+366</f>
+        <v>45443</v>
+      </c>
+      <c r="AA2" s="12">
+        <f t="shared" ref="AA2" si="1">Z2+365</f>
+        <v>45808</v>
+      </c>
+      <c r="AB2" s="12">
+        <f t="shared" ref="AB2:AC2" si="2">AA2+365</f>
+        <v>46173</v>
+      </c>
+      <c r="AC2" s="12">
+        <f t="shared" si="2"/>
+        <v>46538</v>
+      </c>
+      <c r="AD2" s="12">
+        <f>AC2+366</f>
+        <v>46904</v>
+      </c>
+      <c r="AE2" s="12">
+        <f t="shared" ref="AE2" si="3">AD2+365</f>
+        <v>47269</v>
+      </c>
+      <c r="AF2" s="12">
+        <f>AE2+365</f>
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <v>814</v>
+        <v>6947</v>
       </c>
       <c r="H4" s="5">
-        <v>844</v>
+        <v>7112</v>
       </c>
       <c r="I4" s="5">
-        <v>820</v>
+        <v>7252</v>
       </c>
       <c r="J4" s="5">
-        <v>882</v>
+        <v>7389</v>
       </c>
       <c r="K4" s="5">
-        <v>763</v>
+        <v>7371</v>
       </c>
       <c r="L4" s="5">
-        <v>767</v>
+        <v>7554</v>
       </c>
       <c r="M4" s="5">
-        <v>798</v>
+        <v>7637</v>
       </c>
       <c r="N4" s="5">
-        <v>856</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+        <v>7612</v>
+      </c>
+      <c r="O4" s="5">
+        <v>8417</v>
+      </c>
+      <c r="P4" s="5">
+        <v>8598</v>
+      </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="U4" s="5">
-        <v>3704</v>
+        <v>26707</v>
       </c>
       <c r="V4" s="5">
-        <v>3443</v>
+        <v>27392</v>
       </c>
       <c r="W4" s="5">
-        <v>3359</v>
+        <v>28700</v>
       </c>
       <c r="X4" s="5">
-        <v>3183</v>
+        <v>30174</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <v>720</v>
+        <v>886</v>
       </c>
       <c r="H5" s="5">
-        <v>752</v>
+        <v>1092</v>
       </c>
       <c r="I5" s="5">
-        <v>737</v>
+        <v>1276</v>
       </c>
       <c r="J5" s="5">
-        <v>812</v>
+        <v>2144</v>
       </c>
       <c r="K5" s="5">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="L5" s="5">
-        <v>802</v>
+        <v>1237</v>
       </c>
       <c r="M5" s="5">
-        <v>789</v>
+        <v>1289</v>
       </c>
       <c r="N5" s="5">
-        <v>833</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+        <v>2539</v>
+      </c>
+      <c r="O5" s="5">
+        <v>904</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1435</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="U5" s="5">
+        <v>5855</v>
+      </c>
+      <c r="V5" s="5">
+        <v>5127</v>
+      </c>
+      <c r="W5" s="5">
+        <v>5399</v>
+      </c>
+      <c r="X5" s="5">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>814</v>
+      </c>
+      <c r="H6" s="5">
+        <v>844</v>
+      </c>
+      <c r="I6" s="5">
+        <v>820</v>
+      </c>
+      <c r="J6" s="5">
+        <v>882</v>
+      </c>
+      <c r="K6" s="5">
+        <v>763</v>
+      </c>
+      <c r="L6" s="5">
+        <v>767</v>
+      </c>
+      <c r="M6" s="5">
+        <v>798</v>
+      </c>
+      <c r="N6" s="5">
+        <v>856</v>
+      </c>
+      <c r="O6" s="5">
+        <v>763</v>
+      </c>
+      <c r="P6" s="5">
+        <v>850</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="U6" s="5">
+        <v>3704</v>
+      </c>
+      <c r="V6" s="5">
+        <v>3443</v>
+      </c>
+      <c r="W6" s="5">
+        <v>3359</v>
+      </c>
+      <c r="X6" s="5">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>720</v>
+      </c>
+      <c r="H7" s="5">
+        <v>752</v>
+      </c>
+      <c r="I7" s="5">
+        <v>737</v>
+      </c>
+      <c r="J7" s="5">
+        <v>812</v>
+      </c>
+      <c r="K7" s="5">
+        <v>781</v>
+      </c>
+      <c r="L7" s="5">
+        <v>802</v>
+      </c>
+      <c r="M7" s="5">
+        <v>789</v>
+      </c>
+      <c r="N7" s="5">
+        <v>833</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1361</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1392</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="U7" s="5">
         <v>3240</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V7" s="5">
         <v>3106</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W7" s="5">
         <v>3021</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X7" s="5">
         <v>3205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
-        <v>44074</v>
-      </c>
-      <c r="H7" s="12">
-        <v>44165</v>
-      </c>
-      <c r="I7" s="12">
-        <v>44255</v>
-      </c>
-      <c r="J7" s="12">
-        <v>44347</v>
-      </c>
-      <c r="K7" s="12">
-        <v>44439</v>
-      </c>
-      <c r="L7" s="12">
-        <v>44530</v>
-      </c>
-      <c r="M7" s="12">
-        <v>44620</v>
-      </c>
-      <c r="N7" s="12">
-        <v>44712</v>
-      </c>
-      <c r="O7" s="12">
-        <f>+K7+365</f>
-        <v>44804</v>
-      </c>
-      <c r="P7" s="12">
-        <f t="shared" ref="P7:R7" si="0">+L7+365</f>
-        <v>44895</v>
-      </c>
-      <c r="Q7" s="12">
-        <f t="shared" si="0"/>
-        <v>44985</v>
-      </c>
-      <c r="R7" s="12">
-        <f t="shared" si="0"/>
-        <v>45077</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12">
-        <v>43251</v>
-      </c>
-      <c r="U7" s="12">
-        <v>43616</v>
-      </c>
-      <c r="V7" s="12">
-        <v>43982</v>
-      </c>
-      <c r="W7" s="12">
-        <v>44347</v>
-      </c>
-      <c r="X7" s="12">
-        <v>44712</v>
-      </c>
-      <c r="Y7" s="12">
-        <f>X7+365</f>
-        <v>45077</v>
-      </c>
-      <c r="Z7" s="12">
-        <f>Y7+366</f>
-        <v>45443</v>
-      </c>
-      <c r="AA7" s="12">
-        <f t="shared" ref="AA7" si="1">Z7+365</f>
-        <v>45808</v>
-      </c>
-      <c r="AB7" s="12">
-        <f t="shared" ref="AB7:AC7" si="2">AA7+365</f>
-        <v>46173</v>
-      </c>
-      <c r="AC7" s="12">
-        <f t="shared" si="2"/>
-        <v>46538</v>
-      </c>
-      <c r="AD7" s="12">
-        <f>AC7+366</f>
-        <v>46904</v>
-      </c>
-      <c r="AE7" s="12">
-        <f t="shared" ref="AE7" si="3">AD7+365</f>
-        <v>47269</v>
-      </c>
-      <c r="AF7" s="12">
-        <f>AE7+365</f>
-        <v>47634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1330,105 +1346,105 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9">
-        <f t="shared" ref="G9" si="4">SUM(G2:G5)</f>
+        <f>SUM(G4:G7)</f>
         <v>9367</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" ref="H9:M9" si="5">SUM(H2:H5)</f>
+        <f>SUM(H4:H7)</f>
         <v>9800</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="5"/>
+        <f>SUM(I4:I7)</f>
         <v>10085</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="5"/>
+        <f>SUM(J4:J7)</f>
         <v>11227</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="5"/>
+        <f>SUM(K4:K7)</f>
         <v>9728</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="5"/>
+        <f>SUM(L4:L7)</f>
         <v>10360</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="5"/>
+        <f>SUM(M4:M7)</f>
         <v>10513</v>
       </c>
       <c r="N9" s="9">
-        <f>SUM(N2:N5)</f>
+        <f>SUM(N4:N7)</f>
         <v>11840</v>
       </c>
       <c r="O9" s="9">
-        <f>+K9*1.03</f>
-        <v>10019.84</v>
+        <f>SUM(O4:O7)</f>
+        <v>11445</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" ref="P9:R9" si="6">+L9*1.03</f>
-        <v>10670.800000000001</v>
+        <f>SUM(P4:P7)</f>
+        <v>12275</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P9:R9" si="4">+M9*1.03</f>
         <v>10828.39</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>12195.2</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9">
-        <f t="shared" ref="T9:X9" si="7">SUM(T2:T5)</f>
+        <f>SUM(T4:T7)</f>
         <v>0</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(U4:U7)</f>
         <v>39506</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(V4:V7)</f>
         <v>39068</v>
       </c>
       <c r="W9" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(W4:W7)</f>
         <v>40479</v>
       </c>
       <c r="X9" s="9">
-        <f>SUM(X2:X5)</f>
+        <f>SUM(X4:X7)</f>
         <v>42440</v>
       </c>
       <c r="Y9" s="9">
         <f>SUM(O9:R9)</f>
-        <v>43714.229999999996</v>
+        <v>46743.59</v>
       </c>
       <c r="Z9" s="9">
         <f>Y9*1.03</f>
-        <v>45025.656899999994</v>
+        <v>48145.897699999994</v>
       </c>
       <c r="AA9" s="9">
-        <f t="shared" ref="AA9:AF9" si="8">Z9*1.03</f>
-        <v>46376.426606999994</v>
+        <f t="shared" ref="AA9:AF9" si="5">Z9*1.03</f>
+        <v>49590.274630999993</v>
       </c>
       <c r="AB9" s="9">
-        <f t="shared" si="8"/>
-        <v>47767.719405209995</v>
+        <f t="shared" si="5"/>
+        <v>51077.982869929991</v>
       </c>
       <c r="AC9" s="9">
-        <f t="shared" si="8"/>
-        <v>49200.750987366293</v>
+        <f t="shared" si="5"/>
+        <v>52610.322356027893</v>
       </c>
       <c r="AD9" s="9">
-        <f t="shared" si="8"/>
-        <v>50676.773516987283</v>
+        <f t="shared" si="5"/>
+        <v>54188.632026708729</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="8"/>
-        <v>52197.076722496902</v>
+        <f t="shared" si="5"/>
+        <v>55814.290987509994</v>
       </c>
       <c r="AF9" s="9">
-        <f t="shared" si="8"/>
-        <v>53762.989024171809</v>
+        <f t="shared" si="5"/>
+        <v>57488.719717135296</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1472,19 +1488,19 @@
         <v>2396</v>
       </c>
       <c r="O10" s="5">
-        <f>O9-O11</f>
-        <v>2003.9679999999998</v>
+        <f>1735+249+1053</f>
+        <v>3037</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" ref="P10:R10" si="9">P9-P11</f>
-        <v>2134.16</v>
+        <f>1891+286+1181</f>
+        <v>3358</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P10:R10" si="6">Q9-Q11</f>
         <v>2165.6779999999999</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>2439.0399999999991</v>
       </c>
       <c r="S10" s="5"/>
@@ -1506,35 +1522,35 @@
       </c>
       <c r="Y10" s="3">
         <f>SUM(O10:R10)</f>
-        <v>8742.8459999999977</v>
+        <v>10999.717999999999</v>
       </c>
       <c r="Z10" s="3">
         <f>Z9*0.2</f>
-        <v>9005.1313799999989</v>
+        <v>9629.1795399999992</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" ref="AA10:AF10" si="10">AA9*0.2</f>
-        <v>9275.2853213999988</v>
+        <f t="shared" ref="AA10:AF10" si="7">AA9*0.2</f>
+        <v>9918.0549261999986</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="10"/>
-        <v>9553.5438810420001</v>
+        <f t="shared" si="7"/>
+        <v>10215.596573985998</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="10"/>
-        <v>9840.1501974732601</v>
+        <f t="shared" si="7"/>
+        <v>10522.06447120558</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="10"/>
-        <v>10135.354703397457</v>
+        <f t="shared" si="7"/>
+        <v>10837.726405341746</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="10"/>
-        <v>10439.415344499381</v>
+        <f t="shared" si="7"/>
+        <v>11162.858197501999</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="10"/>
-        <v>10752.597804834362</v>
+        <f t="shared" si="7"/>
+        <v>11497.74394342706</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1546,7 +1562,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
-        <f t="shared" ref="G11" si="11">G9-G10</f>
+        <f t="shared" ref="G11" si="8">G9-G10</f>
         <v>7487</v>
       </c>
       <c r="H11" s="5">
@@ -1562,44 +1578,44 @@
         <v>9105</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ref="K11:N11" si="12">K9-K10</f>
+        <f t="shared" ref="K11:O11" si="9">K9-K10</f>
         <v>7625</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>8201</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>8295</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>9444</v>
       </c>
       <c r="O11" s="5">
-        <f>O9*0.8</f>
-        <v>8015.8720000000003</v>
+        <f t="shared" si="9"/>
+        <v>8408</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11:R11" si="13">P9*0.8</f>
-        <v>8536.6400000000012</v>
+        <f t="shared" ref="P11:R11" si="10">P9*0.8</f>
+        <v>9820</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>8662.7119999999995</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>9756.1600000000017</v>
       </c>
       <c r="S11" s="5"/>
       <c r="U11" s="5">
-        <f t="shared" ref="U11" si="14">U9-U10</f>
+        <f t="shared" ref="U11" si="11">U9-U10</f>
         <v>31511</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" ref="V11" si="15">V9-V10</f>
+        <f t="shared" ref="V11" si="12">V9-V10</f>
         <v>31130</v>
       </c>
       <c r="W11" s="5">
@@ -1607,40 +1623,40 @@
         <v>32624</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" ref="X11" si="16">X9-X10</f>
+        <f t="shared" ref="X11" si="13">X9-X10</f>
         <v>33563</v>
       </c>
       <c r="Y11" s="3">
         <f>Y9-Y10</f>
-        <v>34971.383999999998</v>
+        <v>35743.871999999996</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" ref="Z11:AF11" si="17">Z9-Z10</f>
-        <v>36020.525519999996</v>
+        <f t="shared" ref="Z11:AF11" si="14">Z9-Z10</f>
+        <v>38516.718159999997</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="17"/>
-        <v>37101.141285599995</v>
+        <f t="shared" si="14"/>
+        <v>39672.219704799994</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="17"/>
-        <v>38214.175524167993</v>
+        <f t="shared" si="14"/>
+        <v>40862.386295943994</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="17"/>
-        <v>39360.600789893033</v>
+        <f t="shared" si="14"/>
+        <v>42088.257884822313</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="17"/>
-        <v>40541.418813589829</v>
+        <f t="shared" si="14"/>
+        <v>43350.905621366983</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="17"/>
-        <v>41757.661377997523</v>
+        <f t="shared" si="14"/>
+        <v>44651.432790007995</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="17"/>
-        <v>43010.391219337449</v>
+        <f t="shared" si="14"/>
+        <v>45990.97577370824</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1676,19 +1692,17 @@
         <v>2238</v>
       </c>
       <c r="O12" s="5">
-        <f>K12</f>
-        <v>1854</v>
+        <v>2177</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" ref="P12:R12" si="18">L12</f>
-        <v>1954</v>
+        <v>2216</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P12:R12" si="15">M12</f>
         <v>2004</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2238</v>
       </c>
       <c r="S12" s="5"/>
@@ -1705,36 +1719,36 @@
         <v>8047</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" ref="Y12:Y14" si="19">SUM(O12:R12)</f>
-        <v>8050</v>
+        <f t="shared" ref="Y12:Y14" si="16">SUM(O12:R12)</f>
+        <v>8635</v>
       </c>
       <c r="Z12" s="3">
         <f>Y12*1.02</f>
-        <v>8211</v>
+        <v>8807.7000000000007</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" ref="AA12:AF12" si="20">Z12*1.02</f>
-        <v>8375.2199999999993</v>
+        <f t="shared" ref="AA12:AF12" si="17">Z12*1.02</f>
+        <v>8983.8540000000012</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="20"/>
-        <v>8542.7243999999992</v>
+        <f t="shared" si="17"/>
+        <v>9163.5310800000007</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="20"/>
-        <v>8713.578888</v>
+        <f t="shared" si="17"/>
+        <v>9346.8017016000013</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="20"/>
-        <v>8887.8504657600006</v>
+        <f t="shared" si="17"/>
+        <v>9533.7377356320012</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="20"/>
-        <v>9065.6074750752014</v>
+        <f t="shared" si="17"/>
+        <v>9724.4124903446409</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="20"/>
-        <v>9246.9196245767052</v>
+        <f t="shared" si="17"/>
+        <v>9918.9007401515337</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1770,19 +1784,17 @@
         <v>1965</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13:O14" si="21">K13</f>
-        <v>1684</v>
+        <v>2093</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" ref="P13:P14" si="22">L13</f>
-        <v>1754</v>
+        <v>2158</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" ref="Q13:Q14" si="23">M13</f>
+        <f t="shared" ref="Q13:Q14" si="18">M13</f>
         <v>1816</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" ref="R13:R14" si="24">N13</f>
+        <f t="shared" ref="R13:R14" si="19">N13</f>
         <v>1965</v>
       </c>
       <c r="S13" s="5"/>
@@ -1799,36 +1811,36 @@
         <v>7219</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="19"/>
-        <v>7219</v>
+        <f t="shared" si="16"/>
+        <v>8032</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" ref="Z13:AF13" si="25">Y13*1.01</f>
-        <v>7291.1900000000005</v>
+        <f t="shared" ref="Z13:AF13" si="20">Y13*1.01</f>
+        <v>8112.32</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="25"/>
-        <v>7364.1019000000006</v>
+        <f t="shared" si="20"/>
+        <v>8193.4431999999997</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="25"/>
-        <v>7437.7429190000003</v>
+        <f t="shared" si="20"/>
+        <v>8275.3776319999997</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="25"/>
-        <v>7512.1203481900002</v>
+        <f t="shared" si="20"/>
+        <v>8358.1314083199995</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="25"/>
-        <v>7587.2415516719002</v>
+        <f t="shared" si="20"/>
+        <v>8441.7127224031992</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="25"/>
-        <v>7663.1139671886194</v>
+        <f t="shared" si="20"/>
+        <v>8526.129849627232</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="25"/>
-        <v>7739.745106860506</v>
+        <f t="shared" si="20"/>
+        <v>8611.3911481235045</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1864,19 +1876,17 @@
         <v>364</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="21"/>
-        <v>298</v>
+        <v>411</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="22"/>
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>335</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>364</v>
       </c>
       <c r="S14" s="5"/>
@@ -1893,36 +1903,36 @@
         <v>1317</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="19"/>
-        <v>1316</v>
+        <f t="shared" si="16"/>
+        <v>1476</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" ref="Z14:AF14" si="26">Y14*1.01</f>
-        <v>1329.16</v>
+        <f t="shared" ref="Z14:AF14" si="21">Y14*1.01</f>
+        <v>1490.76</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="26"/>
-        <v>1342.4516000000001</v>
+        <f t="shared" si="21"/>
+        <v>1505.6676</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="26"/>
-        <v>1355.8761160000001</v>
+        <f t="shared" si="21"/>
+        <v>1520.7242759999999</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="26"/>
-        <v>1369.43487716</v>
+        <f t="shared" si="21"/>
+        <v>1535.93151876</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="26"/>
-        <v>1383.1292259316001</v>
+        <f t="shared" si="21"/>
+        <v>1551.2908339476</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="26"/>
-        <v>1396.9605181909162</v>
+        <f t="shared" si="21"/>
+        <v>1566.8037422870761</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="26"/>
-        <v>1410.9301233728254</v>
+        <f t="shared" si="21"/>
+        <v>1582.471779709947</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1930,47 +1940,47 @@
         <v>22</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15:M15" si="27">SUM(C12:C14)</f>
+        <f t="shared" ref="C15:M15" si="22">SUM(C12:C14)</f>
         <v>0</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15" si="28">SUM(G12:G14)</f>
+        <f t="shared" ref="G15" si="23">SUM(G12:G14)</f>
         <v>3738</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>3761</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>3866</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>4098</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>3836</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>4027</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>4155</v>
       </c>
       <c r="N15" s="5">
@@ -1978,28 +1988,28 @@
         <v>4567</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" ref="O15:R15" si="29">SUM(O12:O14)</f>
-        <v>3836</v>
+        <f t="shared" ref="O15:R15" si="24">SUM(O12:O14)</f>
+        <v>4681</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="29"/>
-        <v>4027</v>
+        <f t="shared" si="24"/>
+        <v>4740</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>4155</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>4567</v>
       </c>
       <c r="S15" s="5"/>
       <c r="U15" s="5">
-        <f t="shared" ref="U15" si="30">SUM(U12:U14)</f>
+        <f t="shared" ref="U15" si="25">SUM(U12:U14)</f>
         <v>15800</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" ref="V15" si="31">SUM(V12:V14)</f>
+        <f t="shared" ref="V15" si="26">SUM(V12:V14)</f>
         <v>15342</v>
       </c>
       <c r="W15" s="5">
@@ -2011,36 +2021,36 @@
         <v>16583</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" ref="Y15" si="32">SUM(Y12:Y14)</f>
-        <v>16585</v>
+        <f t="shared" ref="Y15" si="27">SUM(Y12:Y14)</f>
+        <v>18143</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" ref="Z15" si="33">SUM(Z12:Z14)</f>
-        <v>16831.350000000002</v>
+        <f t="shared" ref="Z15" si="28">SUM(Z12:Z14)</f>
+        <v>18410.78</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" ref="AA15" si="34">SUM(AA12:AA14)</f>
-        <v>17081.773499999999</v>
+        <f t="shared" ref="AA15" si="29">SUM(AA12:AA14)</f>
+        <v>18682.964800000002</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" ref="AB15" si="35">SUM(AB12:AB14)</f>
-        <v>17336.343434999999</v>
+        <f t="shared" ref="AB15" si="30">SUM(AB12:AB14)</f>
+        <v>18959.632988000001</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" ref="AC15" si="36">SUM(AC12:AC14)</f>
-        <v>17595.134113350003</v>
+        <f t="shared" ref="AC15" si="31">SUM(AC12:AC14)</f>
+        <v>19240.864628679999</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" ref="AD15" si="37">SUM(AD12:AD14)</f>
-        <v>17858.2212433635</v>
+        <f t="shared" ref="AD15" si="32">SUM(AD12:AD14)</f>
+        <v>19526.741291982802</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" ref="AE15" si="38">SUM(AE12:AE14)</f>
-        <v>18125.681960454738</v>
+        <f t="shared" ref="AE15" si="33">SUM(AE12:AE14)</f>
+        <v>19817.346082258948</v>
       </c>
       <c r="AF15" s="5">
-        <f t="shared" ref="AF15" si="39">SUM(AF12:AF14)</f>
-        <v>18397.594854810035</v>
+        <f t="shared" ref="AF15" si="34">SUM(AF12:AF14)</f>
+        <v>20112.763667984986</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2048,47 +2058,47 @@
         <v>23</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ref="C16:M16" si="40">C11-C15</f>
+        <f t="shared" ref="C16:M16" si="35">C11-C15</f>
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" ref="G16" si="41">G11-G15</f>
+        <f t="shared" ref="G16" si="36">G11-G15</f>
         <v>3749</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>4100</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>4304</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>5007</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>3789</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>4174</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>4140</v>
       </c>
       <c r="N16" s="5">
@@ -2096,28 +2106,28 @@
         <v>4877</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" ref="O16:R16" si="42">O11-O15</f>
-        <v>4179.8720000000003</v>
+        <f t="shared" ref="O16:R16" si="37">O11-O15</f>
+        <v>3727</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="42"/>
-        <v>4509.6400000000012</v>
+        <f t="shared" si="37"/>
+        <v>5080</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>4507.7119999999995</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>5189.1600000000017</v>
       </c>
       <c r="S16" s="5"/>
       <c r="U16" s="5">
-        <f t="shared" ref="U16" si="43">U11-U15</f>
+        <f t="shared" ref="U16" si="38">U11-U15</f>
         <v>15711</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" ref="V16" si="44">V11-V15</f>
+        <f t="shared" ref="V16" si="39">V11-V15</f>
         <v>15788</v>
       </c>
       <c r="W16" s="5">
@@ -2129,36 +2139,36 @@
         <v>16980</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" ref="Y16" si="45">Y11-Y15</f>
-        <v>18386.383999999998</v>
+        <f t="shared" ref="Y16" si="40">Y11-Y15</f>
+        <v>17600.871999999996</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" ref="Z16" si="46">Z11-Z15</f>
-        <v>19189.175519999993</v>
+        <f t="shared" ref="Z16" si="41">Z11-Z15</f>
+        <v>20105.938159999998</v>
       </c>
       <c r="AA16" s="5">
-        <f t="shared" ref="AA16" si="47">AA11-AA15</f>
-        <v>20019.367785599996</v>
+        <f t="shared" ref="AA16" si="42">AA11-AA15</f>
+        <v>20989.254904799993</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" ref="AB16" si="48">AB11-AB15</f>
-        <v>20877.832089167994</v>
+        <f t="shared" ref="AB16" si="43">AB11-AB15</f>
+        <v>21902.753307943993</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" ref="AC16" si="49">AC11-AC15</f>
-        <v>21765.46667654303</v>
+        <f t="shared" ref="AC16" si="44">AC11-AC15</f>
+        <v>22847.393256142313</v>
       </c>
       <c r="AD16" s="5">
-        <f t="shared" ref="AD16" si="50">AD11-AD15</f>
-        <v>22683.19757022633</v>
+        <f t="shared" ref="AD16" si="45">AD11-AD15</f>
+        <v>23824.164329384181</v>
       </c>
       <c r="AE16" s="5">
-        <f t="shared" ref="AE16" si="51">AE11-AE15</f>
-        <v>23631.979417542785</v>
+        <f t="shared" ref="AE16" si="46">AE11-AE15</f>
+        <v>24834.086707749047</v>
       </c>
       <c r="AF16" s="5">
-        <f t="shared" ref="AF16" si="52">AF11-AF15</f>
-        <v>24612.796364527414</v>
+        <f t="shared" ref="AF16" si="47">AF11-AF15</f>
+        <v>25878.212105723254</v>
       </c>
     </row>
     <row r="17" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2194,20 +2204,20 @@
         <v>-704</v>
       </c>
       <c r="O17" s="5">
-        <f>N17</f>
-        <v>-704</v>
+        <f>-787-180</f>
+        <v>-967</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" ref="P17:R17" si="53">O17</f>
-        <v>-704</v>
+        <f>-856-71</f>
+        <v>-927</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="53"/>
-        <v>-704</v>
+        <f t="shared" ref="P17:R17" si="48">P17</f>
+        <v>-927</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="53"/>
-        <v>-704</v>
+        <f t="shared" si="48"/>
+        <v>-927</v>
       </c>
       <c r="S17" s="5"/>
       <c r="U17" s="5">
@@ -2223,36 +2233,36 @@
         <v>-2755</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" ref="Y17:Y19" si="54">SUM(O17:R17)</f>
-        <v>-2816</v>
+        <f t="shared" ref="Y17:Y19" si="49">SUM(O17:R17)</f>
+        <v>-3748</v>
       </c>
       <c r="Z17" s="3">
-        <f>Y30*$AI$31</f>
-        <v>-407.22173599999996</v>
+        <f t="shared" ref="Z17:AF17" si="50">Y30*$AI$31</f>
+        <v>-769.02558799999997</v>
       </c>
       <c r="AA17" s="3">
-        <f>Z30*$AI$31</f>
-        <v>-247.575128836</v>
+        <f t="shared" si="50"/>
+        <v>-604.66183113800003</v>
       </c>
       <c r="AB17" s="3">
-        <f>AA30*$AI$31</f>
-        <v>-79.514891253506036</v>
+        <f t="shared" si="50"/>
+        <v>-431.39279001187299</v>
       </c>
       <c r="AC17" s="3">
-        <f>AB30*$AI$31</f>
-        <v>97.270804928767106</v>
+        <f t="shared" si="50"/>
+        <v>-248.88622560944998</v>
       </c>
       <c r="AD17" s="3">
-        <f>AC30*$AI$31</f>
-        <v>283.10407352127737</v>
+        <f t="shared" si="50"/>
+        <v>-56.798915849920633</v>
       </c>
       <c r="AE17" s="3">
-        <f>AD30*$AI$31</f>
-        <v>478.31763749313205</v>
+        <f t="shared" si="50"/>
+        <v>145.22369016512059</v>
       </c>
       <c r="AF17" s="3">
-        <f>AE30*$AI$31</f>
-        <v>683.2551624609373</v>
+        <f t="shared" si="50"/>
+        <v>357.54782854739096</v>
       </c>
     </row>
     <row r="18" spans="2:121" x14ac:dyDescent="0.2">
@@ -2260,31 +2270,31 @@
         <v>25</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18" si="55">+G16+G17</f>
+        <f t="shared" ref="G18" si="51">+G16+G17</f>
         <v>3135</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" ref="H18:J18" si="56">+H16+H17</f>
+        <f t="shared" ref="H18:J18" si="52">+H16+H17</f>
         <v>3500</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>3719</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>4310</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" ref="K18" si="57">+K16+K17</f>
+        <f t="shared" ref="K18" si="53">+K16+K17</f>
         <v>3084</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" ref="L18" si="58">+L16+L17</f>
+        <f t="shared" ref="L18" si="54">+L16+L17</f>
         <v>3495</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" ref="M18" si="59">+M16+M17</f>
+        <f t="shared" ref="M18" si="55">+M16+M17</f>
         <v>3473</v>
       </c>
       <c r="N18" s="5">
@@ -2292,33 +2302,33 @@
         <v>4173</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" ref="O18:R18" si="60">+O16+O17</f>
-        <v>3475.8720000000003</v>
+        <f t="shared" ref="O18:R18" si="56">+O16+O17</f>
+        <v>2760</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="60"/>
-        <v>3805.6400000000012</v>
+        <f t="shared" si="56"/>
+        <v>4153</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="60"/>
-        <v>3803.7119999999995</v>
+        <f t="shared" si="56"/>
+        <v>3580.7119999999995</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="60"/>
-        <v>4485.1600000000017</v>
+        <f t="shared" si="56"/>
+        <v>4262.1600000000017</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5">
-        <f t="shared" ref="U18:V18" si="61">+U16+U17</f>
+        <f t="shared" ref="U18" si="57">+U16+U17</f>
         <v>13629</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" ref="V18:W18" si="62">+V16+V17</f>
+        <f t="shared" ref="V18:W18" si="58">+V16+V17</f>
         <v>13793</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>14665</v>
       </c>
       <c r="X18" s="5">
@@ -2326,36 +2336,36 @@
         <v>14225</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" ref="Y18" si="63">+Y16+Y17</f>
-        <v>15570.383999999998</v>
+        <f t="shared" ref="Y18" si="59">+Y16+Y17</f>
+        <v>13852.871999999996</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" ref="Z18" si="64">+Z16+Z17</f>
-        <v>18781.953783999994</v>
+        <f t="shared" ref="Z18" si="60">+Z16+Z17</f>
+        <v>19336.912571999997</v>
       </c>
       <c r="AA18" s="5">
-        <f t="shared" ref="AA18" si="65">+AA16+AA17</f>
-        <v>19771.792656763995</v>
+        <f t="shared" ref="AA18" si="61">+AA16+AA17</f>
+        <v>20384.593073661992</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" ref="AB18" si="66">+AB16+AB17</f>
-        <v>20798.317197914486</v>
+        <f t="shared" ref="AB18" si="62">+AB16+AB17</f>
+        <v>21471.36051793212</v>
       </c>
       <c r="AC18" s="5">
-        <f t="shared" ref="AC18" si="67">+AC16+AC17</f>
-        <v>21862.737481471799</v>
+        <f t="shared" ref="AC18" si="63">+AC16+AC17</f>
+        <v>22598.507030532863</v>
       </c>
       <c r="AD18" s="5">
-        <f t="shared" ref="AD18" si="68">+AD16+AD17</f>
-        <v>22966.301643747607</v>
+        <f t="shared" ref="AD18" si="64">+AD16+AD17</f>
+        <v>23767.365413534259</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" ref="AE18" si="69">+AE16+AE17</f>
-        <v>24110.297055035917</v>
+        <f t="shared" ref="AE18" si="65">+AE16+AE17</f>
+        <v>24979.310397914167</v>
       </c>
       <c r="AF18" s="5">
-        <f t="shared" ref="AF18" si="70">+AF16+AF17</f>
-        <v>25296.051526988351</v>
+        <f t="shared" ref="AF18" si="66">+AF16+AF17</f>
+        <v>26235.759934270645</v>
       </c>
     </row>
     <row r="19" spans="2:121" x14ac:dyDescent="0.2">
@@ -2387,20 +2397,18 @@
         <v>435</v>
       </c>
       <c r="O19" s="5">
-        <f>O18*0.15</f>
-        <v>521.38080000000002</v>
+        <v>108</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" ref="P19:R19" si="71">P18*0.15</f>
-        <v>570.84600000000012</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="71"/>
-        <v>570.55679999999995</v>
+        <f t="shared" ref="P19:R19" si="67">Q18*0.15</f>
+        <v>537.10679999999991</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="71"/>
-        <v>672.77400000000023</v>
+        <f t="shared" si="67"/>
+        <v>639.32400000000018</v>
       </c>
       <c r="U19" s="5">
         <v>1185</v>
@@ -2415,36 +2423,36 @@
         <v>932</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="54"/>
-        <v>2335.5576000000005</v>
+        <f t="shared" si="49"/>
+        <v>1687.4308000000001</v>
       </c>
       <c r="Z19" s="3">
         <f>Z18*0.15</f>
-        <v>2817.2930675999992</v>
+        <v>2900.5368857999997</v>
       </c>
       <c r="AA19" s="3">
         <f>AA18*0.15</f>
-        <v>2965.7688985145992</v>
+        <v>3057.6889610492985</v>
       </c>
       <c r="AB19" s="3">
         <f>AB18*0.15</f>
-        <v>3119.7475796871727</v>
+        <v>3220.704077689818</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ref="AC19:AF19" si="72">AC18*0.15</f>
-        <v>3279.4106222207697</v>
+        <f t="shared" ref="AC19:AF19" si="68">AC18*0.15</f>
+        <v>3389.7760545799292</v>
       </c>
       <c r="AD19" s="3">
         <f>AD18*0.15</f>
-        <v>3444.9452465621412</v>
+        <v>3565.1048120301389</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="72"/>
-        <v>3616.5445582553875</v>
+        <f t="shared" si="68"/>
+        <v>3746.8965596871249</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="72"/>
-        <v>3794.4077290482523</v>
+        <f t="shared" si="68"/>
+        <v>3935.3639901405968</v>
       </c>
     </row>
     <row r="20" spans="2:121" x14ac:dyDescent="0.2">
@@ -2452,7 +2460,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20" si="73">G18-G19</f>
+        <f t="shared" ref="G20" si="69">G18-G19</f>
         <v>2791</v>
       </c>
       <c r="H20" s="5">
@@ -2468,15 +2476,15 @@
         <v>4186</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ref="K20:M20" si="74">K18-K19</f>
+        <f t="shared" ref="K20:M20" si="70">K18-K19</f>
         <v>2860</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>3495</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>2952</v>
       </c>
       <c r="N20" s="5">
@@ -2484,27 +2492,27 @@
         <v>3738</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" ref="O20:R20" si="75">O18-O19</f>
-        <v>2954.4912000000004</v>
+        <f t="shared" ref="O20:R20" si="71">O18-O19</f>
+        <v>2652</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="75"/>
-        <v>3234.7940000000012</v>
+        <f t="shared" si="71"/>
+        <v>3750</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="75"/>
-        <v>3233.1551999999997</v>
+        <f t="shared" si="71"/>
+        <v>3043.6051999999995</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="75"/>
-        <v>3812.3860000000013</v>
+        <f t="shared" si="71"/>
+        <v>3622.8360000000016</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" ref="U20" si="76">U18-U19</f>
+        <f t="shared" ref="U20" si="72">U18-U19</f>
         <v>12444</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" ref="V20" si="77">V18-V19</f>
+        <f t="shared" ref="V20" si="73">V18-V19</f>
         <v>11865</v>
       </c>
       <c r="W20" s="5">
@@ -2516,392 +2524,392 @@
         <v>13293</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" ref="Y20" si="78">Y18-Y19</f>
-        <v>13234.826399999998</v>
+        <f t="shared" ref="Y20" si="74">Y18-Y19</f>
+        <v>12165.441199999996</v>
       </c>
       <c r="Z20" s="5">
-        <f t="shared" ref="Z20" si="79">Z18-Z19</f>
-        <v>15964.660716399994</v>
+        <f t="shared" ref="Z20" si="75">Z18-Z19</f>
+        <v>16436.375686199997</v>
       </c>
       <c r="AA20" s="5">
-        <f t="shared" ref="AA20" si="80">AA18-AA19</f>
-        <v>16806.023758249397</v>
+        <f t="shared" ref="AA20" si="76">AA18-AA19</f>
+        <v>17326.904112612694</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" ref="AB20" si="81">AB18-AB19</f>
-        <v>17678.569618227313</v>
+        <f t="shared" ref="AB20" si="77">AB18-AB19</f>
+        <v>18250.656440242303</v>
       </c>
       <c r="AC20" s="5">
-        <f t="shared" ref="AC20" si="82">AC18-AC19</f>
-        <v>18583.326859251029</v>
+        <f t="shared" ref="AC20" si="78">AC18-AC19</f>
+        <v>19208.730975952934</v>
       </c>
       <c r="AD20" s="5">
-        <f t="shared" ref="AD20" si="83">AD18-AD19</f>
-        <v>19521.356397185467</v>
+        <f t="shared" ref="AD20" si="79">AD18-AD19</f>
+        <v>20202.26060150412</v>
       </c>
       <c r="AE20" s="5">
-        <f t="shared" ref="AE20" si="84">AE18-AE19</f>
-        <v>20493.752496780529</v>
+        <f t="shared" ref="AE20" si="80">AE18-AE19</f>
+        <v>21232.413838227043</v>
       </c>
       <c r="AF20" s="5">
-        <f t="shared" ref="AF20" si="85">AF18-AF19</f>
-        <v>21501.643797940098</v>
+        <f t="shared" ref="AF20" si="81">AF18-AF19</f>
+        <v>22300.395944130047</v>
       </c>
       <c r="AG20" s="3">
-        <f>AF20*(1+$AI$30)</f>
-        <v>21716.660235919499</v>
+        <f t="shared" ref="AG20:BL20" si="82">AF20*(1+$AI$30)</f>
+        <v>22523.399903571346</v>
       </c>
       <c r="AH20" s="3">
-        <f>AG20*(1+$AI$30)</f>
-        <v>21933.826838278696</v>
+        <f t="shared" si="82"/>
+        <v>22748.63390260706</v>
       </c>
       <c r="AI20" s="3">
-        <f>AH20*(1+$AI$30)</f>
-        <v>22153.165106661483</v>
+        <f t="shared" si="82"/>
+        <v>22976.120241633133</v>
       </c>
       <c r="AJ20" s="3">
-        <f>AI20*(1+$AI$30)</f>
-        <v>22374.696757728099</v>
+        <f t="shared" si="82"/>
+        <v>23205.881444049464</v>
       </c>
       <c r="AK20" s="3">
-        <f>AJ20*(1+$AI$30)</f>
-        <v>22598.44372530538</v>
+        <f t="shared" si="82"/>
+        <v>23437.940258489958</v>
       </c>
       <c r="AL20" s="3">
-        <f>AK20*(1+$AI$30)</f>
-        <v>22824.428162558434</v>
+        <f t="shared" si="82"/>
+        <v>23672.319661074856</v>
       </c>
       <c r="AM20" s="3">
-        <f>AL20*(1+$AI$30)</f>
-        <v>23052.67244418402</v>
+        <f t="shared" si="82"/>
+        <v>23909.042857685607</v>
       </c>
       <c r="AN20" s="3">
-        <f>AM20*(1+$AI$30)</f>
-        <v>23283.199168625859</v>
+        <f t="shared" si="82"/>
+        <v>24148.133286262462</v>
       </c>
       <c r="AO20" s="3">
-        <f>AN20*(1+$AI$30)</f>
-        <v>23516.031160312119</v>
+        <f t="shared" si="82"/>
+        <v>24389.614619125088</v>
       </c>
       <c r="AP20" s="3">
-        <f>AO20*(1+$AI$30)</f>
-        <v>23751.191471915241</v>
+        <f t="shared" si="82"/>
+        <v>24633.51076531634</v>
       </c>
       <c r="AQ20" s="3">
-        <f>AP20*(1+$AI$30)</f>
-        <v>23988.703386634392</v>
+        <f t="shared" si="82"/>
+        <v>24879.845872969505</v>
       </c>
       <c r="AR20" s="3">
-        <f>AQ20*(1+$AI$30)</f>
-        <v>24228.590420500735</v>
+        <f t="shared" si="82"/>
+        <v>25128.644331699201</v>
       </c>
       <c r="AS20" s="3">
-        <f>AR20*(1+$AI$30)</f>
-        <v>24470.876324705743</v>
+        <f t="shared" si="82"/>
+        <v>25379.930775016193</v>
       </c>
       <c r="AT20" s="3">
-        <f>AS20*(1+$AI$30)</f>
-        <v>24715.585087952801</v>
+        <f t="shared" si="82"/>
+        <v>25633.730082766357</v>
       </c>
       <c r="AU20" s="3">
-        <f>AT20*(1+$AI$30)</f>
-        <v>24962.740938832329</v>
+        <f t="shared" si="82"/>
+        <v>25890.067383594022</v>
       </c>
       <c r="AV20" s="3">
-        <f>AU20*(1+$AI$30)</f>
-        <v>25212.368348220651</v>
+        <f t="shared" si="82"/>
+        <v>26148.968057429964</v>
       </c>
       <c r="AW20" s="3">
-        <f>AV20*(1+$AI$30)</f>
-        <v>25464.492031702859</v>
+        <f t="shared" si="82"/>
+        <v>26410.457738004265</v>
       </c>
       <c r="AX20" s="3">
-        <f>AW20*(1+$AI$30)</f>
-        <v>25719.13695201989</v>
+        <f t="shared" si="82"/>
+        <v>26674.562315384308</v>
       </c>
       <c r="AY20" s="3">
-        <f>AX20*(1+$AI$30)</f>
-        <v>25976.328321540088</v>
+        <f t="shared" si="82"/>
+        <v>26941.30793853815</v>
       </c>
       <c r="AZ20" s="3">
-        <f>AY20*(1+$AI$30)</f>
-        <v>26236.091604755489</v>
+        <f t="shared" si="82"/>
+        <v>27210.72101792353</v>
       </c>
       <c r="BA20" s="3">
-        <f>AZ20*(1+$AI$30)</f>
-        <v>26498.452520803043</v>
+        <f t="shared" si="82"/>
+        <v>27482.828228102764</v>
       </c>
       <c r="BB20" s="3">
-        <f>BA20*(1+$AI$30)</f>
-        <v>26763.437046011073</v>
+        <f t="shared" si="82"/>
+        <v>27757.656510383793</v>
       </c>
       <c r="BC20" s="3">
-        <f>BB20*(1+$AI$30)</f>
-        <v>27031.071416471183</v>
+        <f t="shared" si="82"/>
+        <v>28035.233075487631</v>
       </c>
       <c r="BD20" s="3">
-        <f>BC20*(1+$AI$30)</f>
-        <v>27301.382130635895</v>
+        <f t="shared" si="82"/>
+        <v>28315.585406242506</v>
       </c>
       <c r="BE20" s="3">
-        <f>BD20*(1+$AI$30)</f>
-        <v>27574.395951942253</v>
+        <f t="shared" si="82"/>
+        <v>28598.741260304931</v>
       </c>
       <c r="BF20" s="3">
-        <f>BE20*(1+$AI$30)</f>
-        <v>27850.139911461676</v>
+        <f t="shared" si="82"/>
+        <v>28884.728672907979</v>
       </c>
       <c r="BG20" s="3">
-        <f>BF20*(1+$AI$30)</f>
-        <v>28128.641310576291</v>
+        <f t="shared" si="82"/>
+        <v>29173.575959637059</v>
       </c>
       <c r="BH20" s="3">
-        <f>BG20*(1+$AI$30)</f>
-        <v>28409.927723682056</v>
+        <f t="shared" si="82"/>
+        <v>29465.311719233428</v>
       </c>
       <c r="BI20" s="3">
-        <f>BH20*(1+$AI$30)</f>
-        <v>28694.027000918875</v>
+        <f t="shared" si="82"/>
+        <v>29759.964836425763</v>
       </c>
       <c r="BJ20" s="3">
-        <f>BI20*(1+$AI$30)</f>
-        <v>28980.967270928064</v>
+        <f t="shared" si="82"/>
+        <v>30057.564484790022</v>
       </c>
       <c r="BK20" s="3">
-        <f>BJ20*(1+$AI$30)</f>
-        <v>29270.776943637346</v>
+        <f t="shared" si="82"/>
+        <v>30358.140129637923</v>
       </c>
       <c r="BL20" s="3">
-        <f>BK20*(1+$AI$30)</f>
-        <v>29563.484713073718</v>
+        <f t="shared" si="82"/>
+        <v>30661.721530934301</v>
       </c>
       <c r="BM20" s="3">
-        <f>BL20*(1+$AI$30)</f>
-        <v>29859.119560204457</v>
+        <f t="shared" ref="BM20:CR20" si="83">BL20*(1+$AI$30)</f>
+        <v>30968.338746243644</v>
       </c>
       <c r="BN20" s="3">
-        <f>BM20*(1+$AI$30)</f>
-        <v>30157.710755806504</v>
+        <f t="shared" si="83"/>
+        <v>31278.022133706079</v>
       </c>
       <c r="BO20" s="3">
-        <f>BN20*(1+$AI$30)</f>
-        <v>30459.287863364571</v>
+        <f t="shared" si="83"/>
+        <v>31590.802355043139</v>
       </c>
       <c r="BP20" s="3">
-        <f>BO20*(1+$AI$30)</f>
-        <v>30763.880741998215</v>
+        <f t="shared" si="83"/>
+        <v>31906.710378593572</v>
       </c>
       <c r="BQ20" s="3">
-        <f>BP20*(1+$AI$30)</f>
-        <v>31071.519549418197</v>
+        <f t="shared" si="83"/>
+        <v>32225.777482379508</v>
       </c>
       <c r="BR20" s="3">
-        <f>BQ20*(1+$AI$30)</f>
-        <v>31382.234744912381</v>
+        <f t="shared" si="83"/>
+        <v>32548.035257203304</v>
       </c>
       <c r="BS20" s="3">
-        <f>BR20*(1+$AI$30)</f>
-        <v>31696.057092361505</v>
+        <f t="shared" si="83"/>
+        <v>32873.515609775335</v>
       </c>
       <c r="BT20" s="3">
-        <f>BS20*(1+$AI$30)</f>
-        <v>32013.017663285122</v>
+        <f t="shared" si="83"/>
+        <v>33202.25076587309</v>
       </c>
       <c r="BU20" s="3">
-        <f>BT20*(1+$AI$30)</f>
-        <v>32333.147839917972</v>
+        <f t="shared" si="83"/>
+        <v>33534.27327353182</v>
       </c>
       <c r="BV20" s="3">
-        <f>BU20*(1+$AI$30)</f>
-        <v>32656.479318317153</v>
+        <f t="shared" si="83"/>
+        <v>33869.616006267141</v>
       </c>
       <c r="BW20" s="3">
-        <f>BV20*(1+$AI$30)</f>
-        <v>32983.044111500327</v>
+        <f t="shared" si="83"/>
+        <v>34208.312166329815</v>
       </c>
       <c r="BX20" s="3">
-        <f>BW20*(1+$AI$30)</f>
-        <v>33312.874552615329</v>
+        <f t="shared" si="83"/>
+        <v>34550.395287993117</v>
       </c>
       <c r="BY20" s="3">
-        <f>BX20*(1+$AI$30)</f>
-        <v>33646.003298141484</v>
+        <f t="shared" si="83"/>
+        <v>34895.899240873048</v>
       </c>
       <c r="BZ20" s="3">
-        <f>BY20*(1+$AI$30)</f>
-        <v>33982.463331122897</v>
+        <f t="shared" si="83"/>
+        <v>35244.858233281782</v>
       </c>
       <c r="CA20" s="3">
-        <f>BZ20*(1+$AI$30)</f>
-        <v>34322.28796443413</v>
+        <f t="shared" si="83"/>
+        <v>35597.306815614604</v>
       </c>
       <c r="CB20" s="3">
-        <f>CA20*(1+$AI$30)</f>
-        <v>34665.510844078475</v>
+        <f t="shared" si="83"/>
+        <v>35953.279883770752</v>
       </c>
       <c r="CC20" s="3">
-        <f>CB20*(1+$AI$30)</f>
-        <v>35012.165952519259</v>
+        <f t="shared" si="83"/>
+        <v>36312.812682608463</v>
       </c>
       <c r="CD20" s="3">
-        <f>CC20*(1+$AI$30)</f>
-        <v>35362.287612044449</v>
+        <f t="shared" si="83"/>
+        <v>36675.940809434549</v>
       </c>
       <c r="CE20" s="3">
-        <f>CD20*(1+$AI$30)</f>
-        <v>35715.910488164896</v>
+        <f t="shared" si="83"/>
+        <v>37042.700217528894</v>
       </c>
       <c r="CF20" s="3">
-        <f>CE20*(1+$AI$30)</f>
-        <v>36073.069593046544</v>
+        <f t="shared" si="83"/>
+        <v>37413.127219704184</v>
       </c>
       <c r="CG20" s="3">
-        <f>CF20*(1+$AI$30)</f>
-        <v>36433.800288977007</v>
+        <f t="shared" si="83"/>
+        <v>37787.258491901222</v>
       </c>
       <c r="CH20" s="3">
-        <f>CG20*(1+$AI$30)</f>
-        <v>36798.13829186678</v>
+        <f t="shared" si="83"/>
+        <v>38165.131076820238</v>
       </c>
       <c r="CI20" s="3">
-        <f>CH20*(1+$AI$30)</f>
-        <v>37166.119674785448</v>
+        <f t="shared" si="83"/>
+        <v>38546.782387588442</v>
       </c>
       <c r="CJ20" s="3">
-        <f>CI20*(1+$AI$30)</f>
-        <v>37537.780871533301</v>
+        <f t="shared" si="83"/>
+        <v>38932.250211464328</v>
       </c>
       <c r="CK20" s="3">
-        <f>CJ20*(1+$AI$30)</f>
-        <v>37913.158680248634</v>
+        <f t="shared" si="83"/>
+        <v>39321.572713578971</v>
       </c>
       <c r="CL20" s="3">
-        <f>CK20*(1+$AI$30)</f>
-        <v>38292.290267051118</v>
+        <f t="shared" si="83"/>
+        <v>39714.788440714758</v>
       </c>
       <c r="CM20" s="3">
-        <f>CL20*(1+$AI$30)</f>
-        <v>38675.213169721632</v>
+        <f t="shared" si="83"/>
+        <v>40111.936325121904</v>
       </c>
       <c r="CN20" s="3">
-        <f>CM20*(1+$AI$30)</f>
-        <v>39061.965301418852</v>
+        <f t="shared" si="83"/>
+        <v>40513.055688373126</v>
       </c>
       <c r="CO20" s="3">
-        <f>CN20*(1+$AI$30)</f>
-        <v>39452.584954433041</v>
+        <f t="shared" si="83"/>
+        <v>40918.18624525686</v>
       </c>
       <c r="CP20" s="3">
-        <f>CO20*(1+$AI$30)</f>
-        <v>39847.110803977375</v>
+        <f t="shared" si="83"/>
+        <v>41327.36810770943</v>
       </c>
       <c r="CQ20" s="3">
-        <f>CP20*(1+$AI$30)</f>
-        <v>40245.581912017151</v>
+        <f t="shared" si="83"/>
+        <v>41740.641788786525</v>
       </c>
       <c r="CR20" s="3">
-        <f>CQ20*(1+$AI$30)</f>
-        <v>40648.037731137323</v>
+        <f t="shared" si="83"/>
+        <v>42158.048206674393</v>
       </c>
       <c r="CS20" s="3">
-        <f>CR20*(1+$AI$30)</f>
-        <v>41054.518108448698</v>
+        <f t="shared" ref="CS20:DQ20" si="84">CR20*(1+$AI$30)</f>
+        <v>42579.628688741141</v>
       </c>
       <c r="CT20" s="3">
-        <f>CS20*(1+$AI$30)</f>
-        <v>41465.063289533187</v>
+        <f t="shared" si="84"/>
+        <v>43005.42497562855</v>
       </c>
       <c r="CU20" s="3">
-        <f>CT20*(1+$AI$30)</f>
-        <v>41879.71392242852</v>
+        <f t="shared" si="84"/>
+        <v>43435.479225384835</v>
       </c>
       <c r="CV20" s="3">
-        <f>CU20*(1+$AI$30)</f>
-        <v>42298.511061652804</v>
+        <f t="shared" si="84"/>
+        <v>43869.834017638685</v>
       </c>
       <c r="CW20" s="3">
-        <f>CV20*(1+$AI$30)</f>
-        <v>42721.496172269333</v>
+        <f t="shared" si="84"/>
+        <v>44308.532357815071</v>
       </c>
       <c r="CX20" s="3">
-        <f>CW20*(1+$AI$30)</f>
-        <v>43148.71113399203</v>
+        <f t="shared" si="84"/>
+        <v>44751.617681393225</v>
       </c>
       <c r="CY20" s="3">
-        <f>CX20*(1+$AI$30)</f>
-        <v>43580.198245331951</v>
+        <f t="shared" si="84"/>
+        <v>45199.133858207155</v>
       </c>
       <c r="CZ20" s="3">
-        <f>CY20*(1+$AI$30)</f>
-        <v>44016.000227785269</v>
+        <f t="shared" si="84"/>
+        <v>45651.125196789224</v>
       </c>
       <c r="DA20" s="3">
-        <f>CZ20*(1+$AI$30)</f>
-        <v>44456.16023006312</v>
+        <f t="shared" si="84"/>
+        <v>46107.636448757119</v>
       </c>
       <c r="DB20" s="3">
-        <f>DA20*(1+$AI$30)</f>
-        <v>44900.72183236375</v>
+        <f t="shared" si="84"/>
+        <v>46568.712813244689</v>
       </c>
       <c r="DC20" s="3">
-        <f>DB20*(1+$AI$30)</f>
-        <v>45349.729050687391</v>
+        <f t="shared" si="84"/>
+        <v>47034.399941377138</v>
       </c>
       <c r="DD20" s="3">
-        <f>DC20*(1+$AI$30)</f>
-        <v>45803.226341194262</v>
+        <f t="shared" si="84"/>
+        <v>47504.743940790911</v>
       </c>
       <c r="DE20" s="3">
-        <f>DD20*(1+$AI$30)</f>
-        <v>46261.258604606206</v>
+        <f t="shared" si="84"/>
+        <v>47979.791380198818</v>
       </c>
       <c r="DF20" s="3">
-        <f>DE20*(1+$AI$30)</f>
-        <v>46723.871190652266</v>
+        <f t="shared" si="84"/>
+        <v>48459.589294000805</v>
       </c>
       <c r="DG20" s="3">
-        <f>DF20*(1+$AI$30)</f>
-        <v>47191.10990255879</v>
+        <f t="shared" si="84"/>
+        <v>48944.185186940813</v>
       </c>
       <c r="DH20" s="3">
-        <f>DG20*(1+$AI$30)</f>
-        <v>47663.021001584377</v>
+        <f t="shared" si="84"/>
+        <v>49433.62703881022</v>
       </c>
       <c r="DI20" s="3">
-        <f>DH20*(1+$AI$30)</f>
-        <v>48139.65121160022</v>
+        <f t="shared" si="84"/>
+        <v>49927.96330919832</v>
       </c>
       <c r="DJ20" s="3">
-        <f>DI20*(1+$AI$30)</f>
-        <v>48621.047723716219</v>
+        <f t="shared" si="84"/>
+        <v>50427.242942290301</v>
       </c>
       <c r="DK20" s="3">
-        <f>DJ20*(1+$AI$30)</f>
-        <v>49107.25820095338</v>
+        <f t="shared" si="84"/>
+        <v>50931.515371713205</v>
       </c>
       <c r="DL20" s="3">
-        <f>DK20*(1+$AI$30)</f>
-        <v>49598.330782962912</v>
+        <f t="shared" si="84"/>
+        <v>51440.830525430341</v>
       </c>
       <c r="DM20" s="3">
-        <f>DL20*(1+$AI$30)</f>
-        <v>50094.314090792541</v>
+        <f t="shared" si="84"/>
+        <v>51955.238830684648</v>
       </c>
       <c r="DN20" s="3">
-        <f>DM20*(1+$AI$30)</f>
-        <v>50595.257231700467</v>
+        <f t="shared" si="84"/>
+        <v>52474.791218991493</v>
       </c>
       <c r="DO20" s="3">
-        <f>DN20*(1+$AI$30)</f>
-        <v>51101.209804017475</v>
+        <f t="shared" si="84"/>
+        <v>52999.539131181409</v>
       </c>
       <c r="DP20" s="3">
-        <f>DO20*(1+$AI$30)</f>
-        <v>51612.221902057652</v>
+        <f t="shared" si="84"/>
+        <v>53529.534522493224</v>
       </c>
       <c r="DQ20" s="3">
-        <f>DP20*(1+$AI$30)</f>
-        <v>52128.344121078226</v>
+        <f t="shared" si="84"/>
+        <v>54064.829867718159</v>
       </c>
     </row>
     <row r="21" spans="2:121" x14ac:dyDescent="0.2">
@@ -2909,7 +2917,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21" si="86">G20/G22</f>
+        <f t="shared" ref="G21" si="85">G20/G22</f>
         <v>0.89829417444480208</v>
       </c>
       <c r="H21" s="6">
@@ -2925,43 +2933,43 @@
         <v>1.4223581379544683</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" ref="K21:R21" si="87">K20/K22</f>
+        <f t="shared" ref="K21:R21" si="86">K20/K22</f>
         <v>0.99965047186298495</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1.2973273942093542</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1.0718954248366013</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1.363238512035011</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="87"/>
-        <v>1.0774949671772431</v>
+        <f t="shared" si="86"/>
+        <v>0.96541681834728799</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="87"/>
-        <v>1.1797206418672506</v>
+        <f t="shared" si="86"/>
+        <v>1.3656227239621268</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="87"/>
-        <v>1.1791229759299779</v>
+        <f t="shared" si="86"/>
+        <v>1.1083777130371448</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="87"/>
-        <v>1.3903668854850479</v>
+        <f t="shared" si="86"/>
+        <v>1.319313911143482</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" ref="U21" si="88">U20/U22</f>
+        <f t="shared" ref="U21" si="87">U20/U22</f>
         <v>3.334405144694534</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" ref="V21" si="89">V20/V22</f>
+        <f t="shared" ref="V21" si="88">V20/V22</f>
         <v>3.6020036429872495</v>
       </c>
       <c r="W21" s="6">
@@ -2969,40 +2977,40 @@
         <v>4.852746525479815</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" ref="X21:Y21" si="90">X20/X22</f>
+        <f t="shared" ref="X21:Y21" si="89">X20/X22</f>
         <v>4.7713567839195976</v>
       </c>
       <c r="Y21" s="6">
+        <f t="shared" si="89"/>
+        <v>4.4298374874829296</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" ref="Z21:AF21" si="90">Z20/Z22</f>
+        <v>5.9850252840054612</v>
+      </c>
+      <c r="AA21" s="6">
         <f t="shared" si="90"/>
-        <v>4.826705470459518</v>
-      </c>
-      <c r="Z21" s="6">
-        <f t="shared" ref="Z21:AF21" si="91">Z20/Z22</f>
-        <v>5.8222686784828568</v>
-      </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="91"/>
-        <v>6.1291115092083874</v>
+        <v>6.3092959900273806</v>
       </c>
       <c r="AB21" s="6">
-        <f t="shared" si="91"/>
-        <v>6.4473266295504423</v>
+        <f t="shared" si="90"/>
+        <v>6.645664611831517</v>
       </c>
       <c r="AC21" s="6">
-        <f t="shared" si="91"/>
-        <v>6.7772891536291135</v>
+        <f t="shared" si="90"/>
+        <v>6.994531079090736</v>
       </c>
       <c r="AD21" s="6">
-        <f t="shared" si="91"/>
-        <v>7.11938599459718</v>
+        <f t="shared" si="90"/>
+        <v>7.3563079113351373</v>
       </c>
       <c r="AE21" s="6">
-        <f t="shared" si="91"/>
-        <v>7.4740162278557731</v>
+        <f t="shared" si="90"/>
+        <v>7.7314206056357007</v>
       </c>
       <c r="AF21" s="6">
-        <f t="shared" si="91"/>
-        <v>7.8415914653319101</v>
+        <f t="shared" si="90"/>
+        <v>8.1203080360965121</v>
       </c>
     </row>
     <row r="22" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3038,20 +3046,18 @@
         <v>2742</v>
       </c>
       <c r="O22" s="5">
-        <f>N22</f>
-        <v>2742</v>
+        <v>2747</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" ref="P22:R22" si="92">O22</f>
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="92"/>
-        <v>2742</v>
+        <f t="shared" ref="P22:R22" si="91">P22</f>
+        <v>2746</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="92"/>
-        <v>2742</v>
+        <f t="shared" si="91"/>
+        <v>2746</v>
       </c>
       <c r="S22" s="5"/>
       <c r="U22" s="5">
@@ -3068,35 +3074,35 @@
       </c>
       <c r="Y22" s="3">
         <f>AVERAGE(O22:R22)</f>
-        <v>2742</v>
+        <v>2746.25</v>
       </c>
       <c r="Z22" s="3">
         <f>Y22</f>
-        <v>2742</v>
+        <v>2746.25</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" ref="AA22:AF22" si="93">Z22</f>
-        <v>2742</v>
+        <f t="shared" ref="AA22:AF22" si="92">Z22</f>
+        <v>2746.25</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="93"/>
-        <v>2742</v>
+        <f t="shared" si="92"/>
+        <v>2746.25</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="93"/>
-        <v>2742</v>
+        <f t="shared" si="92"/>
+        <v>2746.25</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="93"/>
-        <v>2742</v>
+        <f t="shared" si="92"/>
+        <v>2746.25</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="93"/>
-        <v>2742</v>
+        <f t="shared" si="92"/>
+        <v>2746.25</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="93"/>
-        <v>2742</v>
+        <f t="shared" si="92"/>
+        <v>2746.25</v>
       </c>
     </row>
     <row r="23" spans="2:121" x14ac:dyDescent="0.2">
@@ -3106,6 +3112,12 @@
       <c r="N23" s="4">
         <v>1.54</v>
       </c>
+      <c r="O23" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1.21</v>
+      </c>
       <c r="X23" s="4">
         <v>1.54</v>
       </c>
@@ -3131,29 +3143,29 @@
         <v>5.4600516611739591E-2</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" ref="O25:R25" si="94">O9/K9-1</f>
+        <f t="shared" ref="O25:R25" si="93">O9/K9-1</f>
+        <v>0.17650082236842102</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="93"/>
+        <v>0.18484555984555984</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="P25" s="7">
-        <f t="shared" si="94"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Q25" s="7">
-        <f t="shared" si="94"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
       <c r="R25" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="S25" s="7"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13">
-        <f t="shared" ref="U25:X25" si="95">V9/U9-1</f>
+        <f t="shared" ref="V25:W25" si="94">V9/U9-1</f>
         <v>-1.108692350529028E-2</v>
       </c>
       <c r="W25" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>3.6116514794716892E-2</v>
       </c>
       <c r="X25" s="13">
@@ -3161,35 +3173,35 @@
         <v>4.8444872650015958E-2</v>
       </c>
       <c r="Y25" s="13">
-        <f t="shared" ref="Y25:AF25" si="96">Y9/X9-1</f>
-        <v>3.0024269557021643E-2</v>
+        <f t="shared" ref="Y25:AF25" si="95">Y9/X9-1</f>
+        <v>0.10140409990574928</v>
       </c>
       <c r="Z25" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AA25" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AB25" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AC25" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AD25" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AE25" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AF25" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -3198,31 +3210,31 @@
         <v>18</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ref="G26:M26" si="97">G11/G9</f>
+        <f t="shared" ref="G26:M26" si="96">G11/G9</f>
         <v>0.79929539874025834</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0.80214285714285716</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0.8101140307387209</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0.81099136011401085</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0.78381990131578949</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0.79160231660231661</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0.78902311423951299</v>
       </c>
       <c r="N26" s="7">
@@ -3230,33 +3242,33 @@
         <v>0.79763513513513518</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" ref="O26:R26" si="98">O11/O9</f>
+        <f t="shared" ref="O26:R26" si="97">O11/O9</f>
+        <v>0.73464394932284838</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="97"/>
         <v>0.8</v>
       </c>
-      <c r="P26" s="7">
-        <f t="shared" si="98"/>
+      <c r="Q26" s="7">
+        <f t="shared" si="97"/>
         <v>0.8</v>
       </c>
-      <c r="Q26" s="7">
-        <f t="shared" si="98"/>
-        <v>0.8</v>
-      </c>
       <c r="R26" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>0.8</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7">
-        <f t="shared" ref="T26:W26" si="99">U11/U9</f>
+        <f t="shared" ref="U26:W26" si="98">U11/U9</f>
         <v>0.79762567711233734</v>
       </c>
       <c r="V26" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.79681580833418653</v>
       </c>
       <c r="W26" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.80594876355641198</v>
       </c>
       <c r="X26" s="7">
@@ -3264,35 +3276,35 @@
         <v>0.79083411875589071</v>
       </c>
       <c r="Y26" s="7">
-        <f t="shared" ref="Y26:AF26" si="100">Y11/Y9</f>
+        <f t="shared" ref="Y26:AF26" si="99">Y11/Y9</f>
+        <v>0.76467964912408304</v>
+      </c>
+      <c r="Z26" s="7">
+        <f t="shared" si="99"/>
         <v>0.8</v>
       </c>
-      <c r="Z26" s="7">
-        <f t="shared" si="100"/>
+      <c r="AA26" s="7">
+        <f t="shared" si="99"/>
         <v>0.8</v>
       </c>
-      <c r="AA26" s="7">
-        <f t="shared" si="100"/>
+      <c r="AB26" s="7">
+        <f t="shared" si="99"/>
         <v>0.8</v>
       </c>
-      <c r="AB26" s="7">
-        <f t="shared" si="100"/>
+      <c r="AC26" s="7">
+        <f t="shared" si="99"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="AC26" s="7">
-        <f t="shared" si="100"/>
-        <v>0.79999999999999993</v>
-      </c>
       <c r="AD26" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.8</v>
       </c>
       <c r="AE26" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.8</v>
       </c>
       <c r="AF26" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.8</v>
       </c>
     </row>
@@ -3315,15 +3327,15 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7">
-        <f t="shared" ref="U27:X27" si="101">U16/U9</f>
+        <f t="shared" ref="U27:W27" si="100">U16/U9</f>
         <v>0.39768642737811977</v>
       </c>
       <c r="V27" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.40411590048121226</v>
       </c>
       <c r="W27" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.42394822006472493</v>
       </c>
       <c r="X27" s="7">
@@ -3331,36 +3343,36 @@
         <v>0.40009425070688032</v>
       </c>
       <c r="Y27" s="7">
-        <f t="shared" ref="Y27:AF27" si="102">Y16/Y9</f>
-        <v>0.42060409161959389</v>
+        <f t="shared" ref="Y27:AF27" si="101">Y16/Y9</f>
+        <v>0.37654086902610595</v>
       </c>
       <c r="Z27" s="7">
-        <f t="shared" si="102"/>
-        <v>0.42618313293281451</v>
+        <f t="shared" si="101"/>
+        <v>0.41760438833815744</v>
       </c>
       <c r="AA27" s="7">
-        <f t="shared" si="102"/>
-        <v>0.43167120130334274</v>
+        <f t="shared" si="101"/>
+        <v>0.42325345162898409</v>
       </c>
       <c r="AB27" s="7">
-        <f t="shared" si="102"/>
-        <v>0.43706989467223473</v>
+        <f t="shared" si="101"/>
+        <v>0.42881006800365085</v>
       </c>
       <c r="AC27" s="7">
-        <f t="shared" si="102"/>
-        <v>0.44238078158871885</v>
+        <f t="shared" si="101"/>
+        <v>0.43427586513399391</v>
       </c>
       <c r="AD27" s="7">
-        <f t="shared" si="102"/>
-        <v>0.44760540176502617</v>
+        <f t="shared" si="101"/>
+        <v>0.43965244071194903</v>
       </c>
       <c r="AE27" s="7">
-        <f t="shared" si="102"/>
-        <v>0.45274526662060022</v>
+        <f t="shared" si="101"/>
+        <v>0.44494136301590514</v>
       </c>
       <c r="AF27" s="7">
-        <f t="shared" si="102"/>
-        <v>0.45780185981589516</v>
+        <f t="shared" si="101"/>
+        <v>0.45014417146621377</v>
       </c>
     </row>
     <row r="28" spans="2:121" x14ac:dyDescent="0.2">
@@ -3372,85 +3384,85 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7">
-        <f t="shared" ref="K28:O28" si="103">K19/K18</f>
+        <f t="shared" ref="K28:N28" si="102">K19/K18</f>
         <v>7.2632944228274973E-2</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>0.15001439677512238</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>0.10424155283968368</v>
       </c>
       <c r="O28" s="7">
         <f>O19/O18</f>
+        <v>3.9130434782608699E-2</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" ref="P28:R28" si="103">P19/P18</f>
+        <v>9.7038285576691544E-2</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="103"/>
         <v>0.15</v>
       </c>
-      <c r="P28" s="7">
-        <f t="shared" ref="P28:R28" si="104">P19/P18</f>
-        <v>0.15</v>
-      </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="104"/>
-        <v>0.15</v>
-      </c>
       <c r="R28" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>0.15</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7">
-        <f t="shared" ref="U28:AF28" si="105">U19/U18</f>
+        <f t="shared" ref="U28:AF28" si="104">U19/U18</f>
         <v>8.6946951353731011E-2</v>
       </c>
       <c r="V28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.13978104835786268</v>
       </c>
       <c r="W28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>6.5518453427065027E-2</v>
       </c>
       <c r="Y28" s="7">
-        <f t="shared" si="105"/>
-        <v>0.15000000000000005</v>
+        <f t="shared" si="104"/>
+        <v>0.12181089957374908</v>
       </c>
       <c r="Z28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.15</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.15</v>
       </c>
       <c r="AB28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.15</v>
       </c>
       <c r="AC28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.15</v>
       </c>
       <c r="AD28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.15</v>
       </c>
       <c r="AE28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.15</v>
       </c>
       <c r="AF28" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.15</v>
       </c>
     </row>
@@ -3463,52 +3475,52 @@
         <v>-53957</v>
       </c>
       <c r="O30" s="5">
-        <f>N30+O20</f>
-        <v>-51002.508799999996</v>
+        <f>O31-O40</f>
+        <v>0</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" ref="P30:R30" si="106">O30+P20</f>
-        <v>-47767.714799999994</v>
+        <f>P31-P40</f>
+        <v>-83569</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="106"/>
-        <v>-44534.559599999993</v>
+        <f t="shared" ref="P30:R30" si="105">P30+Q20</f>
+        <v>-80525.394799999995</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="106"/>
-        <v>-40722.173599999995</v>
+        <f t="shared" si="105"/>
+        <v>-76902.558799999999</v>
       </c>
       <c r="Y30" s="3">
         <f>R30</f>
-        <v>-40722.173599999995</v>
+        <v>-76902.558799999999</v>
       </c>
       <c r="Z30" s="3">
         <f>Y30+Z20</f>
-        <v>-24757.5128836</v>
+        <v>-60466.183113799998</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" ref="AA30:AF30" si="107">Z30+AA20</f>
-        <v>-7951.489125350603</v>
+        <f t="shared" ref="AA30:AF30" si="106">Z30+AA20</f>
+        <v>-43139.2790011873</v>
       </c>
       <c r="AB30" s="3">
-        <f t="shared" si="107"/>
-        <v>9727.0804928767102</v>
+        <f t="shared" si="106"/>
+        <v>-24888.622560944998</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="107"/>
-        <v>28310.407352127739</v>
+        <f t="shared" si="106"/>
+        <v>-5679.8915849920631</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="107"/>
-        <v>47831.763749313206</v>
+        <f t="shared" si="106"/>
+        <v>14522.369016512057</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="107"/>
-        <v>68325.516246093728</v>
+        <f t="shared" si="106"/>
+        <v>35754.782854739096</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="107"/>
-        <v>89827.160044033822</v>
+        <f t="shared" si="106"/>
+        <v>58055.178798869143</v>
       </c>
       <c r="AH30" s="1" t="s">
         <v>87</v>
@@ -3537,7 +3549,10 @@
         <v>21902</v>
       </c>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="P31" s="5">
+        <f>6813+537</f>
+        <v>7350</v>
+      </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -3571,7 +3586,9 @@
         <v>5953</v>
       </c>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="P32" s="5">
+        <v>6197</v>
+      </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -3605,7 +3622,9 @@
         <v>3778</v>
       </c>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="P33" s="5">
+        <v>4014</v>
+      </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
@@ -3618,7 +3637,7 @@
       </c>
       <c r="AI33" s="3">
         <f>NPV(AI32,Z20:DQ20)+N30</f>
-        <v>333897.31380777026</v>
+        <v>347927.38979726465</v>
       </c>
     </row>
     <row r="34" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3640,7 +3659,9 @@
         <v>9716</v>
       </c>
       <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="P34" s="5">
+        <v>14351</v>
+      </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
@@ -3653,7 +3674,7 @@
       </c>
       <c r="AI34" s="15">
         <f>AI33/O22</f>
-        <v>121.77144923696946</v>
+        <v>126.65722235066059</v>
       </c>
     </row>
     <row r="35" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3676,7 +3697,10 @@
         <v>45251</v>
       </c>
       <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
+      <c r="P35" s="5">
+        <f>11593+61513</f>
+        <v>73106</v>
+      </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
@@ -3689,7 +3713,7 @@
       </c>
       <c r="AI35" s="14">
         <f>AI34/Main!G2-1</f>
-        <v>0.72236844748188767</v>
+        <v>0.58321527938325746</v>
       </c>
     </row>
     <row r="36" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3711,7 +3735,9 @@
         <v>12782</v>
       </c>
       <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
+      <c r="P36" s="5">
+        <v>12091</v>
+      </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
@@ -3739,7 +3765,9 @@
         <v>9915</v>
       </c>
       <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
+      <c r="P37" s="5">
+        <v>11360</v>
+      </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
@@ -3767,8 +3795,14 @@
         <f>SUM(N31:N37)</f>
         <v>109297</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+      <c r="O38" s="5">
+        <f>SUM(O31:O37)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <f>SUM(P31:P37)</f>
+        <v>128469</v>
+      </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
@@ -3797,7 +3831,10 @@
         <v>75859</v>
       </c>
       <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="P40" s="5">
+        <f>81173+9746</f>
+        <v>90919</v>
+      </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
@@ -3825,7 +3862,9 @@
         <v>1317</v>
       </c>
       <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+      <c r="P41" s="5">
+        <v>1647</v>
+      </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
@@ -3853,7 +3892,9 @@
         <v>1944</v>
       </c>
       <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
+      <c r="P42" s="5">
+        <v>1780</v>
+      </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
@@ -3881,7 +3922,9 @@
         <v>8357</v>
       </c>
       <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
+      <c r="P43" s="5">
+        <v>8705</v>
+      </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
@@ -3909,7 +3952,9 @@
         <v>4144</v>
       </c>
       <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+      <c r="P44" s="5">
+        <v>5228</v>
+      </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
@@ -3938,7 +3983,10 @@
         <v>18241</v>
       </c>
       <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+      <c r="P45" s="5">
+        <f>11128+7165</f>
+        <v>18293</v>
+      </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
@@ -3966,7 +4014,9 @@
         <v>5203</v>
       </c>
       <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+      <c r="P46" s="5">
+        <v>5673</v>
+      </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
@@ -3994,7 +4044,10 @@
         <v>-5768</v>
       </c>
       <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="P47" s="5">
+        <f>-4246+470</f>
+        <v>-3776</v>
+      </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
@@ -4022,8 +4075,14 @@
         <f>SUM(N40:N47)</f>
         <v>109297</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
+      <c r="O48" s="5">
+        <f>SUM(O40:O47)</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <f>SUM(P40:P47)</f>
+        <v>128469</v>
+      </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -4280,8 +4339,12 @@
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
+      <c r="V58" s="5">
+        <v>13139</v>
+      </c>
+      <c r="W58" s="5">
+        <v>15887</v>
+      </c>
       <c r="X58" s="5">
         <f>SUM(X51:X57)</f>
         <v>9539</v>
@@ -4309,8 +4372,12 @@
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
+      <c r="V60" s="5">
+        <v>-1564</v>
+      </c>
+      <c r="W60" s="5">
+        <v>-2135</v>
+      </c>
       <c r="X60" s="5">
         <v>-4511</v>
       </c>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772FC1A-C9E4-4F64-B674-AECE83CE5E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3942582-8DAA-47F5-8676-22F0109D89DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34095" yWindow="1500" windowWidth="33000" windowHeight="18960" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>Price</t>
   </si>
@@ -306,6 +306,27 @@
   </si>
   <si>
     <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Cerner</t>
+  </si>
+  <si>
+    <t>FY17</t>
   </si>
 </sst>
 </file>
@@ -427,16 +448,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>21433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>101462</xdr:rowOff>
+      <xdr:rowOff>113369</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -451,7 +472,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10354865" y="170260"/>
+          <a:off x="10932319" y="182167"/>
           <a:ext cx="0" cy="10539671"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -477,13 +498,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>43069</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>43069</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
@@ -828,7 +849,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,11 +860,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>80</v>
+        <v>94.72</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
@@ -851,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>2746</v>
+        <v>2776</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -863,7 +887,7 @@
       </c>
       <c r="G4" s="3">
         <f>G3*G2</f>
-        <v>219680</v>
+        <v>262942.71999999997</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -871,10 +895,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <v>7350</v>
+        <v>8769</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -882,10 +906,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <v>90919</v>
+        <v>91811</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -894,7 +918,7 @@
       </c>
       <c r="G7" s="3">
         <f>G4-G5+G6</f>
-        <v>303249</v>
+        <v>345984.72</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -909,13 +933,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
-  <dimension ref="A1:DQ63"/>
+  <dimension ref="A1:DV63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X61" sqref="X61"/>
+      <selection pane="bottomRight" activeCell="X19" sqref="X19:Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,21 +948,21 @@
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="16" width="9.7109375" style="4" customWidth="1"/>
-    <col min="17" max="19" width="9" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="1"/>
-    <col min="21" max="22" width="8.5703125" style="4"/>
-    <col min="23" max="24" width="9.5703125" style="4" customWidth="1"/>
-    <col min="25" max="34" width="8.5703125" style="1"/>
-    <col min="35" max="35" width="9.28515625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.5703125" style="1"/>
+    <col min="17" max="24" width="9" style="4" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" style="1"/>
+    <col min="26" max="27" width="8.5703125" style="4"/>
+    <col min="28" max="29" width="9.5703125" style="4" customWidth="1"/>
+    <col min="30" max="39" width="8.5703125" style="1"/>
+    <col min="40" max="40" width="9.28515625" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -972,7 +996,7 @@
         <v>44804</v>
       </c>
       <c r="P2" s="12">
-        <f t="shared" ref="P2:R2" si="0">+L2+365</f>
+        <f t="shared" ref="P2:V2" si="0">+L2+365</f>
         <v>44895</v>
       </c>
       <c r="Q2" s="12">
@@ -983,56 +1007,75 @@
         <f t="shared" si="0"/>
         <v>45077</v>
       </c>
-      <c r="S2" s="12"/>
+      <c r="S2" s="12">
+        <f t="shared" si="0"/>
+        <v>45169</v>
+      </c>
       <c r="T2" s="12">
+        <f t="shared" si="0"/>
+        <v>45260</v>
+      </c>
+      <c r="U2" s="12">
+        <f t="shared" si="0"/>
+        <v>45350</v>
+      </c>
+      <c r="V2" s="12">
+        <f t="shared" si="0"/>
+        <v>45442</v>
+      </c>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12">
+        <v>42886</v>
+      </c>
+      <c r="Y2" s="12">
         <v>43251</v>
       </c>
-      <c r="U2" s="12">
+      <c r="Z2" s="12">
         <v>43616</v>
       </c>
-      <c r="V2" s="12">
+      <c r="AA2" s="12">
         <v>43982</v>
       </c>
-      <c r="W2" s="12">
+      <c r="AB2" s="12">
         <v>44347</v>
       </c>
-      <c r="X2" s="12">
+      <c r="AC2" s="12">
         <v>44712</v>
       </c>
-      <c r="Y2" s="12">
-        <f>X2+365</f>
+      <c r="AD2" s="12">
+        <f>AC2+365</f>
         <v>45077</v>
       </c>
-      <c r="Z2" s="12">
-        <f>Y2+366</f>
+      <c r="AE2" s="12">
+        <f>AD2+366</f>
         <v>45443</v>
       </c>
-      <c r="AA2" s="12">
-        <f t="shared" ref="AA2" si="1">Z2+365</f>
+      <c r="AF2" s="12">
+        <f t="shared" ref="AF2" si="1">AE2+365</f>
         <v>45808</v>
       </c>
-      <c r="AB2" s="12">
-        <f t="shared" ref="AB2:AC2" si="2">AA2+365</f>
+      <c r="AG2" s="12">
+        <f t="shared" ref="AG2:AH2" si="2">AF2+365</f>
         <v>46173</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AH2" s="12">
         <f t="shared" si="2"/>
         <v>46538</v>
       </c>
-      <c r="AD2" s="12">
-        <f>AC2+366</f>
+      <c r="AI2" s="12">
+        <f>AH2+366</f>
         <v>46904</v>
       </c>
-      <c r="AE2" s="12">
-        <f t="shared" ref="AE2" si="3">AD2+365</f>
+      <c r="AJ2" s="12">
+        <f t="shared" ref="AJ2" si="3">AI2+365</f>
         <v>47269</v>
       </c>
-      <c r="AF2" s="12">
-        <f>AE2+365</f>
+      <c r="AK2" s="12">
+        <f>AJ2+365</f>
         <v>47634</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1081,47 +1124,62 @@
       <c r="R3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="S3" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="T3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
@@ -1159,23 +1217,35 @@
       <c r="P4" s="5">
         <v>8598</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="5">
+        <v>8923</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="U4" s="5">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5">
+        <v>23800</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>26254</v>
+      </c>
+      <c r="Z4" s="5">
         <v>26707</v>
       </c>
-      <c r="V4" s="5">
+      <c r="AA4" s="5">
         <v>27392</v>
       </c>
-      <c r="W4" s="5">
+      <c r="AB4" s="5">
         <v>28700</v>
       </c>
-      <c r="X4" s="5">
+      <c r="AC4" s="5">
         <v>30174</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1213,23 +1283,35 @@
       <c r="P5" s="5">
         <v>1435</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <v>1288</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="U5" s="5">
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5">
+        <v>6418</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>6190</v>
+      </c>
+      <c r="Z5" s="5">
         <v>5855</v>
       </c>
-      <c r="V5" s="5">
+      <c r="AA5" s="5">
         <v>5127</v>
       </c>
-      <c r="W5" s="5">
+      <c r="AB5" s="5">
         <v>5399</v>
       </c>
-      <c r="X5" s="5">
+      <c r="AC5" s="5">
         <v>5878</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1267,23 +1349,35 @@
       <c r="P6" s="5">
         <v>850</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <v>811</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="U6" s="5">
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
+        <v>4152</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>3993</v>
+      </c>
+      <c r="Z6" s="5">
         <v>3704</v>
       </c>
-      <c r="V6" s="5">
+      <c r="AA6" s="5">
         <v>3443</v>
       </c>
-      <c r="W6" s="5">
+      <c r="AB6" s="5">
         <v>3359</v>
       </c>
-      <c r="X6" s="5">
+      <c r="AC6" s="5">
         <v>3183</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1321,23 +1415,35 @@
       <c r="P7" s="5">
         <v>1392</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <v>1376</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="U7" s="5">
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5">
+        <v>3358</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3394</v>
+      </c>
+      <c r="Z7" s="5">
         <v>3240</v>
       </c>
-      <c r="V7" s="5">
+      <c r="AA7" s="5">
         <v>3106</v>
       </c>
-      <c r="W7" s="5">
+      <c r="AB7" s="5">
         <v>3021</v>
       </c>
-      <c r="X7" s="5">
+      <c r="AC7" s="5">
         <v>3205</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1346,108 +1452,116 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9">
-        <f>SUM(G4:G7)</f>
+        <f t="shared" ref="G9:Q9" si="4">SUM(G4:G7)</f>
         <v>9367</v>
       </c>
       <c r="H9" s="9">
-        <f>SUM(H4:H7)</f>
+        <f t="shared" si="4"/>
         <v>9800</v>
       </c>
       <c r="I9" s="9">
-        <f>SUM(I4:I7)</f>
+        <f t="shared" si="4"/>
         <v>10085</v>
       </c>
       <c r="J9" s="9">
-        <f>SUM(J4:J7)</f>
+        <f t="shared" si="4"/>
         <v>11227</v>
       </c>
       <c r="K9" s="9">
-        <f>SUM(K4:K7)</f>
+        <f t="shared" si="4"/>
         <v>9728</v>
       </c>
       <c r="L9" s="9">
-        <f>SUM(L4:L7)</f>
+        <f t="shared" si="4"/>
         <v>10360</v>
       </c>
       <c r="M9" s="9">
-        <f>SUM(M4:M7)</f>
+        <f t="shared" si="4"/>
         <v>10513</v>
       </c>
       <c r="N9" s="9">
-        <f>SUM(N4:N7)</f>
+        <f t="shared" si="4"/>
         <v>11840</v>
       </c>
       <c r="O9" s="9">
-        <f>SUM(O4:O7)</f>
+        <f t="shared" si="4"/>
         <v>11445</v>
       </c>
       <c r="P9" s="9">
-        <f>SUM(P4:P7)</f>
+        <f t="shared" si="4"/>
         <v>12275</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" ref="P9:R9" si="4">+M9*1.03</f>
-        <v>10828.39</v>
+        <f t="shared" si="4"/>
+        <v>12398</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="R9" si="5">+N9*1.03</f>
         <v>12195.2</v>
       </c>
       <c r="S9" s="9"/>
-      <c r="T9" s="9">
-        <f>SUM(T4:T7)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <f>SUM(U4:U7)</f>
-        <v>39506</v>
-      </c>
-      <c r="V9" s="9">
-        <f>SUM(V4:V7)</f>
-        <v>39068</v>
-      </c>
-      <c r="W9" s="9">
-        <f>SUM(W4:W7)</f>
-        <v>40479</v>
-      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
       <c r="X9" s="9">
         <f>SUM(X4:X7)</f>
+        <v>37728</v>
+      </c>
+      <c r="Y9" s="9">
+        <f>SUM(Y4:Y7)</f>
+        <v>39831</v>
+      </c>
+      <c r="Z9" s="9">
+        <f>SUM(Z4:Z7)</f>
+        <v>39506</v>
+      </c>
+      <c r="AA9" s="9">
+        <f>SUM(AA4:AA7)</f>
+        <v>39068</v>
+      </c>
+      <c r="AB9" s="9">
+        <f>SUM(AB4:AB7)</f>
+        <v>40479</v>
+      </c>
+      <c r="AC9" s="9">
+        <f>SUM(AC4:AC7)</f>
         <v>42440</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="AD9" s="9">
         <f>SUM(O9:R9)</f>
-        <v>46743.59</v>
-      </c>
-      <c r="Z9" s="9">
-        <f>Y9*1.03</f>
-        <v>48145.897699999994</v>
-      </c>
-      <c r="AA9" s="9">
-        <f t="shared" ref="AA9:AF9" si="5">Z9*1.03</f>
-        <v>49590.274630999993</v>
-      </c>
-      <c r="AB9" s="9">
-        <f t="shared" si="5"/>
-        <v>51077.982869929991</v>
-      </c>
-      <c r="AC9" s="9">
-        <f t="shared" si="5"/>
-        <v>52610.322356027893</v>
-      </c>
-      <c r="AD9" s="9">
-        <f t="shared" si="5"/>
-        <v>54188.632026708729</v>
+        <v>48313.2</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="5"/>
-        <v>55814.290987509994</v>
+        <f>AD9*1.03</f>
+        <v>49762.595999999998</v>
       </c>
       <c r="AF9" s="9">
-        <f t="shared" si="5"/>
-        <v>57488.719717135296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AF9:AK9" si="6">AE9*1.03</f>
+        <v>51255.473879999998</v>
+      </c>
+      <c r="AG9" s="9">
+        <f t="shared" si="6"/>
+        <v>52793.138096399998</v>
+      </c>
+      <c r="AH9" s="9">
+        <f t="shared" si="6"/>
+        <v>54376.932239292</v>
+      </c>
+      <c r="AI9" s="9">
+        <f t="shared" si="6"/>
+        <v>56008.240206470764</v>
+      </c>
+      <c r="AJ9" s="9">
+        <f t="shared" si="6"/>
+        <v>57688.487412664887</v>
+      </c>
+      <c r="AK9" s="9">
+        <f t="shared" si="6"/>
+        <v>59419.142035044832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1496,64 +1610,76 @@
         <v>3358</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" ref="P10:R10" si="6">Q9-Q11</f>
-        <v>2165.6779999999999</v>
+        <f>1980+244+1215</f>
+        <v>3439</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="R10" si="7">R9-R11</f>
         <v>2439.0399999999991</v>
       </c>
       <c r="S10" s="5"/>
-      <c r="U10" s="5">
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5">
+        <f>3015+1653+2801</f>
+        <v>7469</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>3612+1581+2888</f>
+        <v>8081</v>
+      </c>
+      <c r="Z10" s="5">
         <f>3782+1360+2853</f>
         <v>7995</v>
       </c>
-      <c r="V10" s="5">
+      <c r="AA10" s="5">
         <f>4006+1116+2816</f>
         <v>7938</v>
       </c>
-      <c r="W10" s="5">
+      <c r="AB10" s="5">
         <f>(4353+972+2530)</f>
         <v>7855</v>
       </c>
-      <c r="X10" s="5">
+      <c r="AC10" s="5">
         <f>(5213+972+2692)</f>
         <v>8877</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AD10" s="3">
         <f>SUM(O10:R10)</f>
-        <v>10999.717999999999</v>
-      </c>
-      <c r="Z10" s="3">
-        <f>Z9*0.2</f>
-        <v>9629.1795399999992</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" ref="AA10:AF10" si="7">AA9*0.2</f>
-        <v>9918.0549261999986</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="7"/>
-        <v>10215.596573985998</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="7"/>
-        <v>10522.06447120558</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" si="7"/>
-        <v>10837.726405341746</v>
+        <v>12273.039999999999</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="7"/>
-        <v>11162.858197501999</v>
+        <f>AE9*0.2</f>
+        <v>9952.5192000000006</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="7"/>
-        <v>11497.74394342706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AF10:AK10" si="8">AF9*0.2</f>
+        <v>10251.094776</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="8"/>
+        <v>10558.62761928</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="8"/>
+        <v>10875.3864478584</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="8"/>
+        <v>11201.648041294153</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="8"/>
+        <v>11537.697482532978</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="8"/>
+        <v>11883.828407008967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1562,7 +1688,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
-        <f t="shared" ref="G11" si="8">G9-G10</f>
+        <f t="shared" ref="G11" si="9">G9-G10</f>
         <v>7487</v>
       </c>
       <c r="H11" s="5">
@@ -1578,88 +1704,100 @@
         <v>9105</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ref="K11:O11" si="9">K9-K10</f>
+        <f t="shared" ref="K11:O11" si="10">K9-K10</f>
         <v>7625</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8201</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8295</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9444</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8408</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11:R11" si="10">P9*0.8</f>
+        <f t="shared" ref="P11:R11" si="11">P9*0.8</f>
         <v>9820</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="10"/>
-        <v>8662.7119999999995</v>
+        <f>Q9-Q10</f>
+        <v>8959</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9756.1600000000017</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="U11" s="5">
-        <f t="shared" ref="U11" si="11">U9-U10</f>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5">
+        <f t="shared" ref="X11:Z11" si="12">X9-X10</f>
+        <v>30259</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="12"/>
+        <v>31750</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="12"/>
         <v>31511</v>
       </c>
-      <c r="V11" s="5">
-        <f t="shared" ref="V11" si="12">V9-V10</f>
+      <c r="AA11" s="5">
+        <f t="shared" ref="AA11" si="13">AA9-AA10</f>
         <v>31130</v>
       </c>
-      <c r="W11" s="5">
-        <f>W9-W10</f>
+      <c r="AB11" s="5">
+        <f>AB9-AB10</f>
         <v>32624</v>
       </c>
-      <c r="X11" s="5">
-        <f t="shared" ref="X11" si="13">X9-X10</f>
+      <c r="AC11" s="5">
+        <f t="shared" ref="AC11" si="14">AC9-AC10</f>
         <v>33563</v>
       </c>
-      <c r="Y11" s="3">
-        <f>Y9-Y10</f>
-        <v>35743.871999999996</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" ref="Z11:AF11" si="14">Z9-Z10</f>
-        <v>38516.718159999997</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="14"/>
-        <v>39672.219704799994</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" si="14"/>
-        <v>40862.386295943994</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="14"/>
-        <v>42088.257884822313</v>
-      </c>
       <c r="AD11" s="3">
-        <f t="shared" si="14"/>
-        <v>43350.905621366983</v>
+        <f>AD9-AD10</f>
+        <v>36040.159999999996</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="14"/>
-        <v>44651.432790007995</v>
+        <f t="shared" ref="AE11:AK11" si="15">AE9-AE10</f>
+        <v>39810.076799999995</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="14"/>
-        <v>45990.97577370824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>41004.379104</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="15"/>
+        <v>42234.510477119999</v>
+      </c>
+      <c r="AH11" s="3">
+        <f t="shared" si="15"/>
+        <v>43501.5457914336</v>
+      </c>
+      <c r="AI11" s="3">
+        <f t="shared" si="15"/>
+        <v>44806.592165176611</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="15"/>
+        <v>46150.789930131912</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="15"/>
+        <v>47535.313628035867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1698,60 +1836,69 @@
         <v>2216</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" ref="P12:R12" si="15">M12</f>
-        <v>2004</v>
+        <v>2150</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="R12" si="16">N12</f>
         <v>2238</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="U12" s="5">
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5">
+        <v>8197</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>8431</v>
+      </c>
+      <c r="Z12" s="5">
         <v>8509</v>
       </c>
-      <c r="V12" s="5">
+      <c r="AA12" s="5">
         <v>8094</v>
       </c>
-      <c r="W12" s="5">
+      <c r="AB12" s="5">
         <v>7682</v>
       </c>
-      <c r="X12" s="5">
+      <c r="AC12" s="5">
         <v>8047</v>
       </c>
-      <c r="Y12" s="3">
-        <f t="shared" ref="Y12:Y14" si="16">SUM(O12:R12)</f>
-        <v>8635</v>
-      </c>
-      <c r="Z12" s="3">
-        <f>Y12*1.02</f>
-        <v>8807.7000000000007</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" ref="AA12:AF12" si="17">Z12*1.02</f>
-        <v>8983.8540000000012</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="17"/>
-        <v>9163.5310800000007</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="17"/>
-        <v>9346.8017016000013</v>
-      </c>
       <c r="AD12" s="3">
-        <f t="shared" si="17"/>
-        <v>9533.7377356320012</v>
+        <f t="shared" ref="AD12:AD14" si="17">SUM(O12:R12)</f>
+        <v>8781</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="17"/>
-        <v>9724.4124903446409</v>
+        <f>AD12*1.02</f>
+        <v>8956.6200000000008</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="17"/>
-        <v>9918.9007401515337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AF12:AK12" si="18">AE12*1.02</f>
+        <v>9135.7524000000012</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="18"/>
+        <v>9318.4674480000012</v>
+      </c>
+      <c r="AH12" s="3">
+        <f t="shared" si="18"/>
+        <v>9504.8367969600022</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" si="18"/>
+        <v>9694.933532899202</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="18"/>
+        <v>9888.8322035571855</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="18"/>
+        <v>10086.608847628329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1790,60 +1937,69 @@
         <v>2158</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" ref="Q13:Q14" si="18">M13</f>
-        <v>1816</v>
+        <v>2146</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" ref="R13:R14" si="19">N13</f>
         <v>1965</v>
       </c>
       <c r="S13" s="5"/>
-      <c r="U13" s="5">
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5">
+        <v>6159</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>6091</v>
+      </c>
+      <c r="Z13" s="5">
         <v>6026</v>
       </c>
-      <c r="V13" s="5">
+      <c r="AA13" s="5">
         <v>6067</v>
       </c>
-      <c r="W13" s="5">
+      <c r="AB13" s="5">
         <v>6527</v>
       </c>
-      <c r="X13" s="5">
+      <c r="AC13" s="5">
         <v>7219</v>
       </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="16"/>
-        <v>8032</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" ref="Z13:AF13" si="20">Y13*1.01</f>
-        <v>8112.32</v>
-      </c>
-      <c r="AA13" s="3">
-        <f t="shared" si="20"/>
-        <v>8193.4431999999997</v>
-      </c>
-      <c r="AB13" s="3">
-        <f t="shared" si="20"/>
-        <v>8275.3776319999997</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="20"/>
-        <v>8358.1314083199995</v>
-      </c>
       <c r="AD13" s="3">
-        <f t="shared" si="20"/>
-        <v>8441.7127224031992</v>
+        <f t="shared" si="17"/>
+        <v>8362</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="20"/>
-        <v>8526.129849627232</v>
+        <f t="shared" ref="AE13:AK13" si="20">AD13*1.01</f>
+        <v>8445.6200000000008</v>
       </c>
       <c r="AF13" s="3">
         <f t="shared" si="20"/>
-        <v>8611.3911481235045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8530.0762000000013</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="20"/>
+        <v>8615.3769620000021</v>
+      </c>
+      <c r="AH13" s="3">
+        <f t="shared" si="20"/>
+        <v>8701.5307316200015</v>
+      </c>
+      <c r="AI13" s="3">
+        <f t="shared" si="20"/>
+        <v>8788.5460389362015</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="20"/>
+        <v>8876.431499325563</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="20"/>
+        <v>8965.1958143188185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1882,60 +2038,69 @@
         <v>366</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="18"/>
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="19"/>
         <v>364</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="U14" s="5">
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5">
+        <v>1176</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1289</v>
+      </c>
+      <c r="Z14" s="5">
         <v>1265</v>
       </c>
-      <c r="V14" s="5">
+      <c r="AA14" s="5">
         <v>1181</v>
       </c>
-      <c r="W14" s="5">
+      <c r="AB14" s="5">
         <v>1254</v>
       </c>
-      <c r="X14" s="5">
+      <c r="AC14" s="5">
         <v>1317</v>
       </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="16"/>
-        <v>1476</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" ref="Z14:AF14" si="21">Y14*1.01</f>
-        <v>1490.76</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" si="21"/>
-        <v>1505.6676</v>
-      </c>
-      <c r="AB14" s="3">
-        <f t="shared" si="21"/>
-        <v>1520.7242759999999</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="21"/>
-        <v>1535.93151876</v>
-      </c>
       <c r="AD14" s="3">
-        <f t="shared" si="21"/>
-        <v>1551.2908339476</v>
+        <f t="shared" si="17"/>
+        <v>1543</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="21"/>
-        <v>1566.8037422870761</v>
+        <f t="shared" ref="AE14:AK14" si="21">AD14*1.01</f>
+        <v>1558.43</v>
       </c>
       <c r="AF14" s="3">
         <f t="shared" si="21"/>
-        <v>1582.471779709947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1574.0143</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="21"/>
+        <v>1589.754443</v>
+      </c>
+      <c r="AH14" s="3">
+        <f t="shared" si="21"/>
+        <v>1605.65198743</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" si="21"/>
+        <v>1621.7085073042999</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="21"/>
+        <v>1637.925592377343</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="21"/>
+        <v>1654.3048483011164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1997,63 +2162,75 @@
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="24"/>
-        <v>4155</v>
+        <v>4698</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="24"/>
         <v>4567</v>
       </c>
       <c r="S15" s="5"/>
-      <c r="U15" s="5">
-        <f t="shared" ref="U15" si="25">SUM(U12:U14)</f>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
+        <f t="shared" ref="X15:Z15" si="25">SUM(X12:X14)</f>
+        <v>15532</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="25"/>
+        <v>15811</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="25"/>
         <v>15800</v>
       </c>
-      <c r="V15" s="5">
-        <f t="shared" ref="V15" si="26">SUM(V12:V14)</f>
+      <c r="AA15" s="5">
+        <f t="shared" ref="AA15" si="26">SUM(AA12:AA14)</f>
         <v>15342</v>
       </c>
-      <c r="W15" s="5">
-        <f>SUM(W12:W14)</f>
+      <c r="AB15" s="5">
+        <f>SUM(AB12:AB14)</f>
         <v>15463</v>
       </c>
-      <c r="X15" s="5">
-        <f>SUM(X12:X14)</f>
+      <c r="AC15" s="5">
+        <f>SUM(AC12:AC14)</f>
         <v>16583</v>
       </c>
-      <c r="Y15" s="5">
-        <f t="shared" ref="Y15" si="27">SUM(Y12:Y14)</f>
-        <v>18143</v>
-      </c>
-      <c r="Z15" s="5">
-        <f t="shared" ref="Z15" si="28">SUM(Z12:Z14)</f>
-        <v>18410.78</v>
-      </c>
-      <c r="AA15" s="5">
-        <f t="shared" ref="AA15" si="29">SUM(AA12:AA14)</f>
-        <v>18682.964800000002</v>
-      </c>
-      <c r="AB15" s="5">
-        <f t="shared" ref="AB15" si="30">SUM(AB12:AB14)</f>
-        <v>18959.632988000001</v>
-      </c>
-      <c r="AC15" s="5">
-        <f t="shared" ref="AC15" si="31">SUM(AC12:AC14)</f>
-        <v>19240.864628679999</v>
-      </c>
       <c r="AD15" s="5">
-        <f t="shared" ref="AD15" si="32">SUM(AD12:AD14)</f>
-        <v>19526.741291982802</v>
+        <f t="shared" ref="AD15" si="27">SUM(AD12:AD14)</f>
+        <v>18686</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" ref="AE15" si="33">SUM(AE12:AE14)</f>
-        <v>19817.346082258948</v>
+        <f t="shared" ref="AE15" si="28">SUM(AE12:AE14)</f>
+        <v>18960.670000000002</v>
       </c>
       <c r="AF15" s="5">
-        <f t="shared" ref="AF15" si="34">SUM(AF12:AF14)</f>
-        <v>20112.763667984986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AF15" si="29">SUM(AF12:AF14)</f>
+        <v>19239.8429</v>
+      </c>
+      <c r="AG15" s="5">
+        <f t="shared" ref="AG15" si="30">SUM(AG12:AG14)</f>
+        <v>19523.598853000007</v>
+      </c>
+      <c r="AH15" s="5">
+        <f t="shared" ref="AH15" si="31">SUM(AH12:AH14)</f>
+        <v>19812.019516010005</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" ref="AI15" si="32">SUM(AI12:AI14)</f>
+        <v>20105.188079139705</v>
+      </c>
+      <c r="AJ15" s="5">
+        <f t="shared" ref="AJ15" si="33">SUM(AJ12:AJ14)</f>
+        <v>20403.18929526009</v>
+      </c>
+      <c r="AK15" s="5">
+        <f t="shared" ref="AK15" si="34">SUM(AK12:AK14)</f>
+        <v>20706.109510248265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
@@ -2115,63 +2292,75 @@
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="37"/>
-        <v>4507.7119999999995</v>
+        <v>4261</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="37"/>
         <v>5189.1600000000017</v>
       </c>
       <c r="S16" s="5"/>
-      <c r="U16" s="5">
-        <f t="shared" ref="U16" si="38">U11-U15</f>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5">
+        <f t="shared" ref="X16:Z16" si="38">X11-X15</f>
+        <v>14727</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="38"/>
+        <v>15939</v>
+      </c>
+      <c r="Z16" s="5">
+        <f t="shared" si="38"/>
         <v>15711</v>
       </c>
-      <c r="V16" s="5">
-        <f t="shared" ref="V16" si="39">V11-V15</f>
+      <c r="AA16" s="5">
+        <f t="shared" ref="AA16" si="39">AA11-AA15</f>
         <v>15788</v>
       </c>
-      <c r="W16" s="5">
-        <f>W11-W15</f>
+      <c r="AB16" s="5">
+        <f>AB11-AB15</f>
         <v>17161</v>
       </c>
-      <c r="X16" s="5">
-        <f>X11-X15</f>
+      <c r="AC16" s="5">
+        <f>AC11-AC15</f>
         <v>16980</v>
       </c>
-      <c r="Y16" s="5">
-        <f t="shared" ref="Y16" si="40">Y11-Y15</f>
-        <v>17600.871999999996</v>
-      </c>
-      <c r="Z16" s="5">
-        <f t="shared" ref="Z16" si="41">Z11-Z15</f>
-        <v>20105.938159999998</v>
-      </c>
-      <c r="AA16" s="5">
-        <f t="shared" ref="AA16" si="42">AA11-AA15</f>
-        <v>20989.254904799993</v>
-      </c>
-      <c r="AB16" s="5">
-        <f t="shared" ref="AB16" si="43">AB11-AB15</f>
-        <v>21902.753307943993</v>
-      </c>
-      <c r="AC16" s="5">
-        <f t="shared" ref="AC16" si="44">AC11-AC15</f>
-        <v>22847.393256142313</v>
-      </c>
       <c r="AD16" s="5">
-        <f t="shared" ref="AD16" si="45">AD11-AD15</f>
-        <v>23824.164329384181</v>
+        <f t="shared" ref="AD16" si="40">AD11-AD15</f>
+        <v>17354.159999999996</v>
       </c>
       <c r="AE16" s="5">
-        <f t="shared" ref="AE16" si="46">AE11-AE15</f>
-        <v>24834.086707749047</v>
+        <f t="shared" ref="AE16" si="41">AE11-AE15</f>
+        <v>20849.406799999993</v>
       </c>
       <c r="AF16" s="5">
-        <f t="shared" ref="AF16" si="47">AF11-AF15</f>
-        <v>25878.212105723254</v>
-      </c>
-    </row>
-    <row r="17" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AF16" si="42">AF11-AF15</f>
+        <v>21764.536204</v>
+      </c>
+      <c r="AG16" s="5">
+        <f t="shared" ref="AG16" si="43">AG11-AG15</f>
+        <v>22710.911624119992</v>
+      </c>
+      <c r="AH16" s="5">
+        <f t="shared" ref="AH16" si="44">AH11-AH15</f>
+        <v>23689.526275423596</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" ref="AI16" si="45">AI11-AI15</f>
+        <v>24701.404086036906</v>
+      </c>
+      <c r="AJ16" s="5">
+        <f t="shared" ref="AJ16" si="46">AJ11-AJ15</f>
+        <v>25747.600634871822</v>
+      </c>
+      <c r="AK16" s="5">
+        <f t="shared" ref="AK16" si="47">AK11-AK15</f>
+        <v>26829.204117787602</v>
+      </c>
+    </row>
+    <row r="17" spans="2:126" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
@@ -2212,60 +2401,69 @@
         <v>-927</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" ref="P17:R17" si="48">P17</f>
-        <v>-927</v>
+        <v>-908</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="48"/>
-        <v>-927</v>
+        <f t="shared" ref="R17" si="48">Q17</f>
+        <v>-908</v>
       </c>
       <c r="S17" s="5"/>
-      <c r="U17" s="5">
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>-1798</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>-2025</v>
+      </c>
+      <c r="Z17" s="5">
         <v>-2082</v>
       </c>
-      <c r="V17" s="5">
+      <c r="AA17" s="5">
         <v>-1995</v>
       </c>
-      <c r="W17" s="5">
+      <c r="AB17" s="5">
         <v>-2496</v>
       </c>
-      <c r="X17" s="5">
+      <c r="AC17" s="5">
         <v>-2755</v>
       </c>
-      <c r="Y17" s="3">
-        <f t="shared" ref="Y17:Y19" si="49">SUM(O17:R17)</f>
-        <v>-3748</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" ref="Z17:AF17" si="50">Y30*$AI$31</f>
-        <v>-769.02558799999997</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="50"/>
-        <v>-604.66183113800003</v>
-      </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="50"/>
-        <v>-431.39279001187299</v>
-      </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="50"/>
-        <v>-248.88622560944998</v>
-      </c>
       <c r="AD17" s="3">
-        <f t="shared" si="50"/>
-        <v>-56.798915849920633</v>
+        <f t="shared" ref="AD17:AD19" si="49">SUM(O17:R17)</f>
+        <v>-3710</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="50"/>
-        <v>145.22369016512059</v>
+        <f t="shared" ref="AE17:AK17" si="50">AD30*$AN$31</f>
+        <v>-794.03013999999996</v>
       </c>
       <c r="AF17" s="3">
         <f t="shared" si="50"/>
-        <v>357.54782854739096</v>
-      </c>
-    </row>
-    <row r="18" spans="2:121" x14ac:dyDescent="0.2">
+        <v>-623.55943838999997</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="50"/>
+        <v>-443.86113588231501</v>
+      </c>
+      <c r="AH17" s="3">
+        <f t="shared" si="50"/>
+        <v>-254.59120673229475</v>
+      </c>
+      <c r="AI17" s="3">
+        <f t="shared" si="50"/>
+        <v>-55.394258648418692</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="50"/>
+        <v>154.09682488438347</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="50"/>
+        <v>374.26125329231115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2311,64 +2509,75 @@
       </c>
       <c r="Q18" s="5">
         <f t="shared" si="56"/>
-        <v>3580.7119999999995</v>
+        <v>3353</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="56"/>
-        <v>4262.1600000000017</v>
+        <v>4281.1600000000017</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5">
-        <f t="shared" ref="U18" si="57">+U16+U17</f>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5">
+        <f t="shared" ref="X18:Z18" si="57">+X16+X17</f>
+        <v>12929</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="57"/>
+        <v>13914</v>
+      </c>
+      <c r="Z18" s="5">
+        <f t="shared" si="57"/>
         <v>13629</v>
       </c>
-      <c r="V18" s="5">
-        <f t="shared" ref="V18:W18" si="58">+V16+V17</f>
+      <c r="AA18" s="5">
+        <f t="shared" ref="AA18:AB18" si="58">+AA16+AA17</f>
         <v>13793</v>
       </c>
-      <c r="W18" s="5">
+      <c r="AB18" s="5">
         <f t="shared" si="58"/>
         <v>14665</v>
       </c>
-      <c r="X18" s="5">
-        <f>+X16+X17</f>
+      <c r="AC18" s="5">
+        <f>+AC16+AC17</f>
         <v>14225</v>
       </c>
-      <c r="Y18" s="5">
-        <f t="shared" ref="Y18" si="59">+Y16+Y17</f>
-        <v>13852.871999999996</v>
-      </c>
-      <c r="Z18" s="5">
-        <f t="shared" ref="Z18" si="60">+Z16+Z17</f>
-        <v>19336.912571999997</v>
-      </c>
-      <c r="AA18" s="5">
-        <f t="shared" ref="AA18" si="61">+AA16+AA17</f>
-        <v>20384.593073661992</v>
-      </c>
-      <c r="AB18" s="5">
-        <f t="shared" ref="AB18" si="62">+AB16+AB17</f>
-        <v>21471.36051793212</v>
-      </c>
-      <c r="AC18" s="5">
-        <f t="shared" ref="AC18" si="63">+AC16+AC17</f>
-        <v>22598.507030532863</v>
-      </c>
       <c r="AD18" s="5">
-        <f t="shared" ref="AD18" si="64">+AD16+AD17</f>
-        <v>23767.365413534259</v>
+        <f t="shared" ref="AD18" si="59">+AD16+AD17</f>
+        <v>13644.159999999996</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" ref="AE18" si="65">+AE16+AE17</f>
-        <v>24979.310397914167</v>
+        <f t="shared" ref="AE18" si="60">+AE16+AE17</f>
+        <v>20055.376659999994</v>
       </c>
       <c r="AF18" s="5">
-        <f t="shared" ref="AF18" si="66">+AF16+AF17</f>
-        <v>26235.759934270645</v>
-      </c>
-    </row>
-    <row r="19" spans="2:121" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AF18" si="61">+AF16+AF17</f>
+        <v>21140.976765610001</v>
+      </c>
+      <c r="AG18" s="5">
+        <f t="shared" ref="AG18" si="62">+AG16+AG17</f>
+        <v>22267.050488237677</v>
+      </c>
+      <c r="AH18" s="5">
+        <f t="shared" ref="AH18" si="63">+AH16+AH17</f>
+        <v>23434.935068691302</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" ref="AI18" si="64">+AI16+AI17</f>
+        <v>24646.009827388487</v>
+      </c>
+      <c r="AJ18" s="5">
+        <f t="shared" ref="AJ18" si="65">+AJ16+AJ17</f>
+        <v>25901.697459756204</v>
+      </c>
+      <c r="AK18" s="5">
+        <f t="shared" ref="AK18" si="66">+AK16+AK17</f>
+        <v>27203.465371079914</v>
+      </c>
+    </row>
+    <row r="19" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,59 +2612,68 @@
         <v>403</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" ref="P19:R19" si="67">Q18*0.15</f>
-        <v>537.10679999999991</v>
+        <v>322</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="67"/>
-        <v>639.32400000000018</v>
-      </c>
-      <c r="U19" s="5">
+        <f t="shared" ref="R19" si="67">R18*0.15</f>
+        <v>642.17400000000021</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="X19" s="5">
+        <v>2182</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>9066</v>
+      </c>
+      <c r="Z19" s="5">
         <v>1185</v>
       </c>
-      <c r="V19" s="5">
+      <c r="AA19" s="5">
         <v>1928</v>
       </c>
-      <c r="W19" s="5">
+      <c r="AB19" s="5">
         <v>0</v>
       </c>
-      <c r="X19" s="5">
+      <c r="AC19" s="5">
         <v>932</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="AD19" s="3">
         <f t="shared" si="49"/>
-        <v>1687.4308000000001</v>
-      </c>
-      <c r="Z19" s="3">
-        <f>Z18*0.15</f>
-        <v>2900.5368857999997</v>
-      </c>
-      <c r="AA19" s="3">
-        <f>AA18*0.15</f>
-        <v>3057.6889610492985</v>
-      </c>
-      <c r="AB19" s="3">
-        <f>AB18*0.15</f>
-        <v>3220.704077689818</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" ref="AC19:AF19" si="68">AC18*0.15</f>
-        <v>3389.7760545799292</v>
-      </c>
-      <c r="AD19" s="3">
-        <f>AD18*0.15</f>
-        <v>3565.1048120301389</v>
+        <v>1475.1740000000002</v>
       </c>
       <c r="AE19" s="3">
+        <f>AE18*0.15</f>
+        <v>3008.3064989999989</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>AF18*0.15</f>
+        <v>3171.1465148415</v>
+      </c>
+      <c r="AG19" s="3">
+        <f>AG18*0.15</f>
+        <v>3340.0575732356515</v>
+      </c>
+      <c r="AH19" s="3">
+        <f t="shared" ref="AH19:AK19" si="68">AH18*0.15</f>
+        <v>3515.2402603036953</v>
+      </c>
+      <c r="AI19" s="3">
+        <f>AI18*0.15</f>
+        <v>3696.9014741082729</v>
+      </c>
+      <c r="AJ19" s="3">
         <f t="shared" si="68"/>
-        <v>3746.8965596871249</v>
-      </c>
-      <c r="AF19" s="3">
+        <v>3885.2546189634304</v>
+      </c>
+      <c r="AK19" s="3">
         <f t="shared" si="68"/>
-        <v>3935.3639901405968</v>
-      </c>
-    </row>
-    <row r="20" spans="2:121" x14ac:dyDescent="0.2">
+        <v>4080.519805661987</v>
+      </c>
+    </row>
+    <row r="20" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2501,418 +2719,430 @@
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="71"/>
-        <v>3043.6051999999995</v>
+        <v>3031</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="71"/>
-        <v>3622.8360000000016</v>
-      </c>
-      <c r="U20" s="5">
-        <f t="shared" ref="U20" si="72">U18-U19</f>
+        <v>3638.9860000000017</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="X20" s="5">
+        <f t="shared" ref="X20:Z20" si="72">X18-X19</f>
+        <v>10747</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="72"/>
+        <v>4848</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" si="72"/>
         <v>12444</v>
       </c>
-      <c r="V20" s="5">
-        <f t="shared" ref="V20" si="73">V18-V19</f>
+      <c r="AA20" s="5">
+        <f t="shared" ref="AA20" si="73">AA18-AA19</f>
         <v>11865</v>
       </c>
-      <c r="W20" s="5">
-        <f>W18-W19</f>
+      <c r="AB20" s="5">
+        <f>AB18-AB19</f>
         <v>14665</v>
       </c>
-      <c r="X20" s="5">
-        <f>X18-X19</f>
+      <c r="AC20" s="5">
+        <f>AC18-AC19</f>
         <v>13293</v>
       </c>
-      <c r="Y20" s="5">
-        <f t="shared" ref="Y20" si="74">Y18-Y19</f>
-        <v>12165.441199999996</v>
-      </c>
-      <c r="Z20" s="5">
-        <f t="shared" ref="Z20" si="75">Z18-Z19</f>
-        <v>16436.375686199997</v>
-      </c>
-      <c r="AA20" s="5">
-        <f t="shared" ref="AA20" si="76">AA18-AA19</f>
-        <v>17326.904112612694</v>
-      </c>
-      <c r="AB20" s="5">
-        <f t="shared" ref="AB20" si="77">AB18-AB19</f>
-        <v>18250.656440242303</v>
-      </c>
-      <c r="AC20" s="5">
-        <f t="shared" ref="AC20" si="78">AC18-AC19</f>
-        <v>19208.730975952934</v>
-      </c>
       <c r="AD20" s="5">
-        <f t="shared" ref="AD20" si="79">AD18-AD19</f>
-        <v>20202.26060150412</v>
+        <f t="shared" ref="AD20" si="74">AD18-AD19</f>
+        <v>12168.985999999995</v>
       </c>
       <c r="AE20" s="5">
-        <f t="shared" ref="AE20" si="80">AE18-AE19</f>
-        <v>21232.413838227043</v>
+        <f t="shared" ref="AE20" si="75">AE18-AE19</f>
+        <v>17047.070160999996</v>
       </c>
       <c r="AF20" s="5">
-        <f t="shared" ref="AF20" si="81">AF18-AF19</f>
-        <v>22300.395944130047</v>
-      </c>
-      <c r="AG20" s="3">
-        <f t="shared" ref="AG20:BL20" si="82">AF20*(1+$AI$30)</f>
-        <v>22523.399903571346</v>
-      </c>
-      <c r="AH20" s="3">
-        <f t="shared" si="82"/>
-        <v>22748.63390260706</v>
-      </c>
-      <c r="AI20" s="3">
-        <f t="shared" si="82"/>
-        <v>22976.120241633133</v>
-      </c>
-      <c r="AJ20" s="3">
-        <f t="shared" si="82"/>
-        <v>23205.881444049464</v>
-      </c>
-      <c r="AK20" s="3">
-        <f t="shared" si="82"/>
-        <v>23437.940258489958</v>
+        <f t="shared" ref="AF20" si="76">AF18-AF19</f>
+        <v>17969.8302507685</v>
+      </c>
+      <c r="AG20" s="5">
+        <f t="shared" ref="AG20" si="77">AG18-AG19</f>
+        <v>18926.992915002025</v>
+      </c>
+      <c r="AH20" s="5">
+        <f t="shared" ref="AH20" si="78">AH18-AH19</f>
+        <v>19919.694808387605</v>
+      </c>
+      <c r="AI20" s="5">
+        <f t="shared" ref="AI20" si="79">AI18-AI19</f>
+        <v>20949.108353280215</v>
+      </c>
+      <c r="AJ20" s="5">
+        <f t="shared" ref="AJ20" si="80">AJ18-AJ19</f>
+        <v>22016.442840792773</v>
+      </c>
+      <c r="AK20" s="5">
+        <f t="shared" ref="AK20" si="81">AK18-AK19</f>
+        <v>23122.945565417926</v>
       </c>
       <c r="AL20" s="3">
-        <f t="shared" si="82"/>
-        <v>23672.319661074856</v>
+        <f t="shared" ref="AL20:BQ20" si="82">AK20*(1+$AN$30)</f>
+        <v>23354.175021072104</v>
       </c>
       <c r="AM20" s="3">
         <f t="shared" si="82"/>
-        <v>23909.042857685607</v>
+        <v>23587.716771282827</v>
       </c>
       <c r="AN20" s="3">
         <f t="shared" si="82"/>
-        <v>24148.133286262462</v>
+        <v>23823.593938995655</v>
       </c>
       <c r="AO20" s="3">
         <f t="shared" si="82"/>
-        <v>24389.614619125088</v>
+        <v>24061.829878385612</v>
       </c>
       <c r="AP20" s="3">
         <f t="shared" si="82"/>
-        <v>24633.51076531634</v>
+        <v>24302.448177169466</v>
       </c>
       <c r="AQ20" s="3">
         <f t="shared" si="82"/>
-        <v>24879.845872969505</v>
+        <v>24545.472658941162</v>
       </c>
       <c r="AR20" s="3">
         <f t="shared" si="82"/>
-        <v>25128.644331699201</v>
+        <v>24790.927385530573</v>
       </c>
       <c r="AS20" s="3">
         <f t="shared" si="82"/>
-        <v>25379.930775016193</v>
+        <v>25038.836659385877</v>
       </c>
       <c r="AT20" s="3">
         <f t="shared" si="82"/>
-        <v>25633.730082766357</v>
+        <v>25289.225025979737</v>
       </c>
       <c r="AU20" s="3">
         <f t="shared" si="82"/>
-        <v>25890.067383594022</v>
+        <v>25542.117276239533</v>
       </c>
       <c r="AV20" s="3">
         <f t="shared" si="82"/>
-        <v>26148.968057429964</v>
+        <v>25797.538449001928</v>
       </c>
       <c r="AW20" s="3">
         <f t="shared" si="82"/>
-        <v>26410.457738004265</v>
+        <v>26055.513833491947</v>
       </c>
       <c r="AX20" s="3">
         <f t="shared" si="82"/>
-        <v>26674.562315384308</v>
+        <v>26316.068971826866</v>
       </c>
       <c r="AY20" s="3">
         <f t="shared" si="82"/>
-        <v>26941.30793853815</v>
+        <v>26579.229661545134</v>
       </c>
       <c r="AZ20" s="3">
         <f t="shared" si="82"/>
-        <v>27210.72101792353</v>
+        <v>26845.021958160585</v>
       </c>
       <c r="BA20" s="3">
         <f t="shared" si="82"/>
-        <v>27482.828228102764</v>
+        <v>27113.472177742191</v>
       </c>
       <c r="BB20" s="3">
         <f t="shared" si="82"/>
-        <v>27757.656510383793</v>
+        <v>27384.606899519615</v>
       </c>
       <c r="BC20" s="3">
         <f t="shared" si="82"/>
-        <v>28035.233075487631</v>
+        <v>27658.452968514812</v>
       </c>
       <c r="BD20" s="3">
         <f t="shared" si="82"/>
-        <v>28315.585406242506</v>
+        <v>27935.037498199959</v>
       </c>
       <c r="BE20" s="3">
         <f t="shared" si="82"/>
-        <v>28598.741260304931</v>
+        <v>28214.38787318196</v>
       </c>
       <c r="BF20" s="3">
         <f t="shared" si="82"/>
-        <v>28884.728672907979</v>
+        <v>28496.531751913779</v>
       </c>
       <c r="BG20" s="3">
         <f t="shared" si="82"/>
-        <v>29173.575959637059</v>
+        <v>28781.497069432917</v>
       </c>
       <c r="BH20" s="3">
         <f t="shared" si="82"/>
-        <v>29465.311719233428</v>
+        <v>29069.312040127246</v>
       </c>
       <c r="BI20" s="3">
         <f t="shared" si="82"/>
-        <v>29759.964836425763</v>
+        <v>29360.005160528519</v>
       </c>
       <c r="BJ20" s="3">
         <f t="shared" si="82"/>
-        <v>30057.564484790022</v>
+        <v>29653.605212133803</v>
       </c>
       <c r="BK20" s="3">
         <f t="shared" si="82"/>
-        <v>30358.140129637923</v>
+        <v>29950.14126425514</v>
       </c>
       <c r="BL20" s="3">
         <f t="shared" si="82"/>
-        <v>30661.721530934301</v>
+        <v>30249.642676897693</v>
       </c>
       <c r="BM20" s="3">
-        <f t="shared" ref="BM20:CR20" si="83">BL20*(1+$AI$30)</f>
-        <v>30968.338746243644</v>
+        <f t="shared" si="82"/>
+        <v>30552.139103666668</v>
       </c>
       <c r="BN20" s="3">
-        <f t="shared" si="83"/>
-        <v>31278.022133706079</v>
+        <f t="shared" si="82"/>
+        <v>30857.660494703334</v>
       </c>
       <c r="BO20" s="3">
-        <f t="shared" si="83"/>
-        <v>31590.802355043139</v>
+        <f t="shared" si="82"/>
+        <v>31166.237099650367</v>
       </c>
       <c r="BP20" s="3">
-        <f t="shared" si="83"/>
-        <v>31906.710378593572</v>
+        <f t="shared" si="82"/>
+        <v>31477.899470646869</v>
       </c>
       <c r="BQ20" s="3">
-        <f t="shared" si="83"/>
-        <v>32225.777482379508</v>
+        <f t="shared" si="82"/>
+        <v>31792.67846535334</v>
       </c>
       <c r="BR20" s="3">
-        <f t="shared" si="83"/>
-        <v>32548.035257203304</v>
+        <f t="shared" ref="BR20:CW20" si="83">BQ20*(1+$AN$30)</f>
+        <v>32110.605250006873</v>
       </c>
       <c r="BS20" s="3">
         <f t="shared" si="83"/>
-        <v>32873.515609775335</v>
+        <v>32431.711302506941</v>
       </c>
       <c r="BT20" s="3">
         <f t="shared" si="83"/>
-        <v>33202.25076587309</v>
+        <v>32756.028415532011</v>
       </c>
       <c r="BU20" s="3">
         <f t="shared" si="83"/>
-        <v>33534.27327353182</v>
+        <v>33083.588699687331</v>
       </c>
       <c r="BV20" s="3">
         <f t="shared" si="83"/>
-        <v>33869.616006267141</v>
+        <v>33414.424586684203</v>
       </c>
       <c r="BW20" s="3">
         <f t="shared" si="83"/>
-        <v>34208.312166329815</v>
+        <v>33748.568832551042</v>
       </c>
       <c r="BX20" s="3">
         <f t="shared" si="83"/>
-        <v>34550.395287993117</v>
+        <v>34086.054520876554</v>
       </c>
       <c r="BY20" s="3">
         <f t="shared" si="83"/>
-        <v>34895.899240873048</v>
+        <v>34426.915066085319</v>
       </c>
       <c r="BZ20" s="3">
         <f t="shared" si="83"/>
-        <v>35244.858233281782</v>
+        <v>34771.184216746173</v>
       </c>
       <c r="CA20" s="3">
         <f t="shared" si="83"/>
-        <v>35597.306815614604</v>
+        <v>35118.896058913633</v>
       </c>
       <c r="CB20" s="3">
         <f t="shared" si="83"/>
-        <v>35953.279883770752</v>
+        <v>35470.085019502767</v>
       </c>
       <c r="CC20" s="3">
         <f t="shared" si="83"/>
-        <v>36312.812682608463</v>
+        <v>35824.785869697793</v>
       </c>
       <c r="CD20" s="3">
         <f t="shared" si="83"/>
-        <v>36675.940809434549</v>
+        <v>36183.033728394774</v>
       </c>
       <c r="CE20" s="3">
         <f t="shared" si="83"/>
-        <v>37042.700217528894</v>
+        <v>36544.864065678725</v>
       </c>
       <c r="CF20" s="3">
         <f t="shared" si="83"/>
-        <v>37413.127219704184</v>
+        <v>36910.312706335513</v>
       </c>
       <c r="CG20" s="3">
         <f t="shared" si="83"/>
-        <v>37787.258491901222</v>
+        <v>37279.415833398867</v>
       </c>
       <c r="CH20" s="3">
         <f t="shared" si="83"/>
-        <v>38165.131076820238</v>
+        <v>37652.20999173286</v>
       </c>
       <c r="CI20" s="3">
         <f t="shared" si="83"/>
-        <v>38546.782387588442</v>
+        <v>38028.732091650192</v>
       </c>
       <c r="CJ20" s="3">
         <f t="shared" si="83"/>
-        <v>38932.250211464328</v>
+        <v>38409.019412566697</v>
       </c>
       <c r="CK20" s="3">
         <f t="shared" si="83"/>
-        <v>39321.572713578971</v>
+        <v>38793.109606692364</v>
       </c>
       <c r="CL20" s="3">
         <f t="shared" si="83"/>
-        <v>39714.788440714758</v>
+        <v>39181.040702759288</v>
       </c>
       <c r="CM20" s="3">
         <f t="shared" si="83"/>
-        <v>40111.936325121904</v>
+        <v>39572.851109786883</v>
       </c>
       <c r="CN20" s="3">
         <f t="shared" si="83"/>
-        <v>40513.055688373126</v>
+        <v>39968.579620884753</v>
       </c>
       <c r="CO20" s="3">
         <f t="shared" si="83"/>
-        <v>40918.18624525686</v>
+        <v>40368.2654170936</v>
       </c>
       <c r="CP20" s="3">
         <f t="shared" si="83"/>
-        <v>41327.36810770943</v>
+        <v>40771.948071264538</v>
       </c>
       <c r="CQ20" s="3">
         <f t="shared" si="83"/>
-        <v>41740.641788786525</v>
+        <v>41179.667551977182</v>
       </c>
       <c r="CR20" s="3">
         <f t="shared" si="83"/>
-        <v>42158.048206674393</v>
+        <v>41591.464227496952</v>
       </c>
       <c r="CS20" s="3">
-        <f t="shared" ref="CS20:DQ20" si="84">CR20*(1+$AI$30)</f>
-        <v>42579.628688741141</v>
+        <f t="shared" si="83"/>
+        <v>42007.378869771921</v>
       </c>
       <c r="CT20" s="3">
-        <f t="shared" si="84"/>
-        <v>43005.42497562855</v>
+        <f t="shared" si="83"/>
+        <v>42427.452658469643</v>
       </c>
       <c r="CU20" s="3">
-        <f t="shared" si="84"/>
-        <v>43435.479225384835</v>
+        <f t="shared" si="83"/>
+        <v>42851.72718505434</v>
       </c>
       <c r="CV20" s="3">
-        <f t="shared" si="84"/>
-        <v>43869.834017638685</v>
+        <f t="shared" si="83"/>
+        <v>43280.244456904882</v>
       </c>
       <c r="CW20" s="3">
-        <f t="shared" si="84"/>
-        <v>44308.532357815071</v>
+        <f t="shared" si="83"/>
+        <v>43713.046901473928</v>
       </c>
       <c r="CX20" s="3">
-        <f t="shared" si="84"/>
-        <v>44751.617681393225</v>
+        <f t="shared" ref="CX20:DV20" si="84">CW20*(1+$AN$30)</f>
+        <v>44150.177370488665</v>
       </c>
       <c r="CY20" s="3">
         <f t="shared" si="84"/>
-        <v>45199.133858207155</v>
+        <v>44591.679144193549</v>
       </c>
       <c r="CZ20" s="3">
         <f t="shared" si="84"/>
-        <v>45651.125196789224</v>
+        <v>45037.595935635487</v>
       </c>
       <c r="DA20" s="3">
         <f t="shared" si="84"/>
-        <v>46107.636448757119</v>
+        <v>45487.971894991839</v>
       </c>
       <c r="DB20" s="3">
         <f t="shared" si="84"/>
-        <v>46568.712813244689</v>
+        <v>45942.851613941755</v>
       </c>
       <c r="DC20" s="3">
         <f t="shared" si="84"/>
-        <v>47034.399941377138</v>
+        <v>46402.28013008117</v>
       </c>
       <c r="DD20" s="3">
         <f t="shared" si="84"/>
-        <v>47504.743940790911</v>
+        <v>46866.302931381979</v>
       </c>
       <c r="DE20" s="3">
         <f t="shared" si="84"/>
-        <v>47979.791380198818</v>
+        <v>47334.965960695801</v>
       </c>
       <c r="DF20" s="3">
         <f t="shared" si="84"/>
-        <v>48459.589294000805</v>
+        <v>47808.315620302761</v>
       </c>
       <c r="DG20" s="3">
         <f t="shared" si="84"/>
-        <v>48944.185186940813</v>
+        <v>48286.39877650579</v>
       </c>
       <c r="DH20" s="3">
         <f t="shared" si="84"/>
-        <v>49433.62703881022</v>
+        <v>48769.262764270847</v>
       </c>
       <c r="DI20" s="3">
         <f t="shared" si="84"/>
-        <v>49927.96330919832</v>
+        <v>49256.955391913558</v>
       </c>
       <c r="DJ20" s="3">
         <f t="shared" si="84"/>
-        <v>50427.242942290301</v>
+        <v>49749.524945832694</v>
       </c>
       <c r="DK20" s="3">
         <f t="shared" si="84"/>
-        <v>50931.515371713205</v>
+        <v>50247.020195291021</v>
       </c>
       <c r="DL20" s="3">
         <f t="shared" si="84"/>
-        <v>51440.830525430341</v>
+        <v>50749.490397243935</v>
       </c>
       <c r="DM20" s="3">
         <f t="shared" si="84"/>
-        <v>51955.238830684648</v>
+        <v>51256.985301216373</v>
       </c>
       <c r="DN20" s="3">
         <f t="shared" si="84"/>
-        <v>52474.791218991493</v>
+        <v>51769.555154228539</v>
       </c>
       <c r="DO20" s="3">
         <f t="shared" si="84"/>
-        <v>52999.539131181409</v>
+        <v>52287.250705770828</v>
       </c>
       <c r="DP20" s="3">
         <f t="shared" si="84"/>
-        <v>53529.534522493224</v>
+        <v>52810.123212828534</v>
       </c>
       <c r="DQ20" s="3">
         <f t="shared" si="84"/>
-        <v>54064.829867718159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:121" x14ac:dyDescent="0.2">
+        <v>53338.224444956817</v>
+      </c>
+      <c r="DR20" s="3">
+        <f t="shared" si="84"/>
+        <v>53871.606689406384</v>
+      </c>
+      <c r="DS20" s="3">
+        <f t="shared" si="84"/>
+        <v>54410.322756300448</v>
+      </c>
+      <c r="DT20" s="3">
+        <f t="shared" si="84"/>
+        <v>54954.425983863453</v>
+      </c>
+      <c r="DU20" s="3">
+        <f t="shared" si="84"/>
+        <v>55503.97024370209</v>
+      </c>
+      <c r="DV20" s="3">
+        <f t="shared" si="84"/>
+        <v>56059.009946139115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2958,62 +3188,74 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="86"/>
-        <v>1.1083777130371448</v>
+        <v>1.0918587896253602</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="86"/>
-        <v>1.319313911143482</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" ref="U21" si="87">U20/U22</f>
+        <v>1.3108739193083581</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="X21" s="6">
+        <f t="shared" ref="X21:Z21" si="87">X20/X22</f>
+        <v>2.5484941901825944</v>
+      </c>
+      <c r="Y21" s="6">
+        <f t="shared" si="87"/>
+        <v>1.1439358187824447</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" si="87"/>
         <v>3.334405144694534</v>
       </c>
-      <c r="V21" s="6">
-        <f t="shared" ref="V21" si="88">V20/V22</f>
+      <c r="AA21" s="6">
+        <f t="shared" ref="AA21" si="88">AA20/AA22</f>
         <v>3.6020036429872495</v>
       </c>
-      <c r="W21" s="6">
-        <f>W20/W22</f>
+      <c r="AB21" s="6">
+        <f>AB20/AB22</f>
         <v>4.852746525479815</v>
       </c>
-      <c r="X21" s="6">
-        <f t="shared" ref="X21:Y21" si="89">X20/X22</f>
+      <c r="AC21" s="6">
+        <f t="shared" ref="AC21:AD21" si="89">AC20/AC22</f>
         <v>4.7713567839195976</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="AD21" s="6">
         <f t="shared" si="89"/>
-        <v>4.4298374874829296</v>
-      </c>
-      <c r="Z21" s="6">
-        <f t="shared" ref="Z21:AF21" si="90">Z20/Z22</f>
-        <v>5.9850252840054612</v>
-      </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="90"/>
-        <v>6.3092959900273806</v>
-      </c>
-      <c r="AB21" s="6">
-        <f t="shared" si="90"/>
-        <v>6.645664611831517</v>
-      </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="90"/>
-        <v>6.994531079090736</v>
-      </c>
-      <c r="AD21" s="6">
-        <f t="shared" si="90"/>
-        <v>7.3563079113351373</v>
+        <v>4.4070569488456295</v>
       </c>
       <c r="AE21" s="6">
-        <f t="shared" si="90"/>
-        <v>7.7314206056357007</v>
+        <f t="shared" ref="AE21:AK21" si="90">AE20/AE22</f>
+        <v>6.1736786459031219</v>
       </c>
       <c r="AF21" s="6">
         <f t="shared" si="90"/>
-        <v>8.1203080360965121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6.5078606612108647</v>
+      </c>
+      <c r="AG21" s="6">
+        <f t="shared" si="90"/>
+        <v>6.8545017347223274</v>
+      </c>
+      <c r="AH21" s="6">
+        <f t="shared" si="90"/>
+        <v>7.2140135114124417</v>
+      </c>
+      <c r="AI21" s="6">
+        <f t="shared" si="90"/>
+        <v>7.5868205896895304</v>
+      </c>
+      <c r="AJ21" s="6">
+        <f t="shared" si="90"/>
+        <v>7.9733609201603528</v>
+      </c>
+      <c r="AK21" s="6">
+        <f t="shared" si="90"/>
+        <v>8.3740862165388599</v>
+      </c>
+    </row>
+    <row r="22" spans="2:126" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -3052,60 +3294,69 @@
         <v>2746</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" ref="P22:R22" si="91">P22</f>
-        <v>2746</v>
+        <v>2776</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="91"/>
-        <v>2746</v>
+        <f t="shared" ref="R22" si="91">Q22</f>
+        <v>2776</v>
       </c>
       <c r="S22" s="5"/>
-      <c r="U22" s="5">
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5">
+        <v>4217</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>4238</v>
+      </c>
+      <c r="Z22" s="5">
         <v>3732</v>
       </c>
-      <c r="V22" s="5">
+      <c r="AA22" s="5">
         <v>3294</v>
       </c>
-      <c r="W22" s="5">
+      <c r="AB22" s="5">
         <v>3022</v>
       </c>
-      <c r="X22" s="5">
+      <c r="AC22" s="5">
         <v>2786</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AD22" s="3">
         <f>AVERAGE(O22:R22)</f>
-        <v>2746.25</v>
-      </c>
-      <c r="Z22" s="3">
-        <f>Y22</f>
-        <v>2746.25</v>
-      </c>
-      <c r="AA22" s="3">
-        <f t="shared" ref="AA22:AF22" si="92">Z22</f>
-        <v>2746.25</v>
-      </c>
-      <c r="AB22" s="3">
+        <v>2761.25</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>AD22</f>
+        <v>2761.25</v>
+      </c>
+      <c r="AF22" s="3">
+        <f t="shared" ref="AF22:AK22" si="92">AE22</f>
+        <v>2761.25</v>
+      </c>
+      <c r="AG22" s="3">
         <f t="shared" si="92"/>
-        <v>2746.25</v>
-      </c>
-      <c r="AC22" s="3">
+        <v>2761.25</v>
+      </c>
+      <c r="AH22" s="3">
         <f t="shared" si="92"/>
-        <v>2746.25</v>
-      </c>
-      <c r="AD22" s="3">
+        <v>2761.25</v>
+      </c>
+      <c r="AI22" s="3">
         <f t="shared" si="92"/>
-        <v>2746.25</v>
-      </c>
-      <c r="AE22" s="3">
+        <v>2761.25</v>
+      </c>
+      <c r="AJ22" s="3">
         <f t="shared" si="92"/>
-        <v>2746.25</v>
-      </c>
-      <c r="AF22" s="3">
+        <v>2761.25</v>
+      </c>
+      <c r="AK22" s="3">
         <f t="shared" si="92"/>
-        <v>2746.25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:121" x14ac:dyDescent="0.2">
+        <v>2761.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3118,11 +3369,11 @@
       <c r="P23" s="4">
         <v>1.21</v>
       </c>
-      <c r="X23" s="4">
+      <c r="AC23" s="4">
         <v>1.54</v>
       </c>
     </row>
-    <row r="25" spans="2:121" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
@@ -3152,49 +3403,34 @@
       </c>
       <c r="Q25" s="7">
         <f t="shared" si="93"/>
-        <v>3.0000000000000027E-2</v>
+        <v>0.17930181679824986</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="S25" s="7"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13">
-        <f t="shared" ref="V25:W25" si="94">V9/U9-1</f>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13">
+        <f t="shared" ref="AA25:AB25" si="94">AA9/Z9-1</f>
         <v>-1.108692350529028E-2</v>
       </c>
-      <c r="W25" s="13">
+      <c r="AB25" s="13">
         <f t="shared" si="94"/>
         <v>3.6116514794716892E-2</v>
       </c>
-      <c r="X25" s="13">
-        <f>X9/W9-1</f>
+      <c r="AC25" s="13">
+        <f>AC9/AB9-1</f>
         <v>4.8444872650015958E-2</v>
       </c>
-      <c r="Y25" s="13">
-        <f t="shared" ref="Y25:AF25" si="95">Y9/X9-1</f>
-        <v>0.10140409990574928</v>
-      </c>
-      <c r="Z25" s="13">
-        <f t="shared" si="95"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AA25" s="13">
-        <f t="shared" si="95"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AB25" s="13">
-        <f t="shared" si="95"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AC25" s="13">
-        <f t="shared" si="95"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
       <c r="AD25" s="13">
-        <f t="shared" si="95"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="AD25:AK25" si="95">AD9/AC9-1</f>
+        <v>0.13838831291234688</v>
       </c>
       <c r="AE25" s="13">
         <f t="shared" si="95"/>
@@ -3204,8 +3440,28 @@
         <f t="shared" si="95"/>
         <v>3.0000000000000027E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="AG25" s="13">
+        <f t="shared" si="95"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AH25" s="13">
+        <f t="shared" si="95"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AI25" s="13">
+        <f t="shared" si="95"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AJ25" s="13">
+        <f t="shared" si="95"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AK25" s="13">
+        <f t="shared" si="95"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
@@ -3251,7 +3507,7 @@
       </c>
       <c r="Q26" s="7">
         <f t="shared" si="97"/>
-        <v>0.8</v>
+        <v>0.72261655105662204</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="97"/>
@@ -3259,56 +3515,61 @@
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7">
-        <f t="shared" ref="U26:W26" si="98">U11/U9</f>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7">
+        <f t="shared" ref="Z26:AB26" si="98">Z11/Z9</f>
         <v>0.79762567711233734</v>
       </c>
-      <c r="V26" s="7">
+      <c r="AA26" s="7">
         <f t="shared" si="98"/>
         <v>0.79681580833418653</v>
       </c>
-      <c r="W26" s="7">
+      <c r="AB26" s="7">
         <f t="shared" si="98"/>
         <v>0.80594876355641198</v>
       </c>
-      <c r="X26" s="7">
-        <f>X11/X9</f>
+      <c r="AC26" s="7">
+        <f>AC11/AC9</f>
         <v>0.79083411875589071</v>
       </c>
-      <c r="Y26" s="7">
-        <f t="shared" ref="Y26:AF26" si="99">Y11/Y9</f>
-        <v>0.76467964912408304</v>
-      </c>
-      <c r="Z26" s="7">
-        <f t="shared" si="99"/>
-        <v>0.8</v>
-      </c>
-      <c r="AA26" s="7">
-        <f t="shared" si="99"/>
-        <v>0.8</v>
-      </c>
-      <c r="AB26" s="7">
-        <f t="shared" si="99"/>
-        <v>0.8</v>
-      </c>
-      <c r="AC26" s="7">
+      <c r="AD26" s="7">
+        <f t="shared" ref="AD26:AK26" si="99">AD11/AD9</f>
+        <v>0.74596921752233336</v>
+      </c>
+      <c r="AE26" s="7">
         <f t="shared" si="99"/>
         <v>0.79999999999999993</v>
-      </c>
-      <c r="AD26" s="7">
-        <f t="shared" si="99"/>
-        <v>0.8</v>
-      </c>
-      <c r="AE26" s="7">
-        <f t="shared" si="99"/>
-        <v>0.8</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="99"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="AG26" s="7">
+        <f t="shared" si="99"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH26" s="7">
+        <f t="shared" si="99"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI26" s="7">
+        <f t="shared" si="99"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ26" s="7">
+        <f t="shared" si="99"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK26" s="7">
+        <f t="shared" si="99"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
@@ -3326,56 +3587,61 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7">
-        <f t="shared" ref="U27:W27" si="100">U16/U9</f>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7">
+        <f t="shared" ref="Z27:AB27" si="100">Z16/Z9</f>
         <v>0.39768642737811977</v>
       </c>
-      <c r="V27" s="7">
+      <c r="AA27" s="7">
         <f t="shared" si="100"/>
         <v>0.40411590048121226</v>
       </c>
-      <c r="W27" s="7">
+      <c r="AB27" s="7">
         <f t="shared" si="100"/>
         <v>0.42394822006472493</v>
       </c>
-      <c r="X27" s="7">
-        <f>X16/X9</f>
+      <c r="AC27" s="7">
+        <f>AC16/AC9</f>
         <v>0.40009425070688032</v>
       </c>
-      <c r="Y27" s="7">
-        <f t="shared" ref="Y27:AF27" si="101">Y16/Y9</f>
-        <v>0.37654086902610595</v>
-      </c>
-      <c r="Z27" s="7">
-        <f t="shared" si="101"/>
-        <v>0.41760438833815744</v>
-      </c>
-      <c r="AA27" s="7">
-        <f t="shared" si="101"/>
-        <v>0.42325345162898409</v>
-      </c>
-      <c r="AB27" s="7">
-        <f t="shared" si="101"/>
-        <v>0.42881006800365085</v>
-      </c>
-      <c r="AC27" s="7">
-        <f t="shared" si="101"/>
-        <v>0.43427586513399391</v>
-      </c>
       <c r="AD27" s="7">
-        <f t="shared" si="101"/>
-        <v>0.43965244071194903</v>
+        <f t="shared" ref="AD27:AK27" si="101">AD16/AD9</f>
+        <v>0.3592012120911055</v>
       </c>
       <c r="AE27" s="7">
         <f t="shared" si="101"/>
-        <v>0.44494136301590514</v>
+        <v>0.41897747456744405</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="101"/>
-        <v>0.45014417146621377</v>
-      </c>
-    </row>
-    <row r="28" spans="2:121" x14ac:dyDescent="0.2">
+        <v>0.42462852367642573</v>
+      </c>
+      <c r="AG27" s="7">
+        <f t="shared" si="101"/>
+        <v>0.43018680917679081</v>
+      </c>
+      <c r="AH27" s="7">
+        <f t="shared" si="101"/>
+        <v>0.43565396759006347</v>
+      </c>
+      <c r="AI27" s="7">
+        <f t="shared" si="101"/>
+        <v>0.44103160525981128</v>
+      </c>
+      <c r="AJ27" s="7">
+        <f t="shared" si="101"/>
+        <v>0.44632129892210026</v>
+      </c>
+      <c r="AK27" s="7">
+        <f t="shared" si="101"/>
+        <v>0.45152459626502178</v>
+      </c>
+    </row>
+    <row r="28" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
@@ -3409,7 +3675,7 @@
       </c>
       <c r="Q28" s="7">
         <f t="shared" si="103"/>
-        <v>0.15</v>
+        <v>9.6033402922755737E-2</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="103"/>
@@ -3417,45 +3683,30 @@
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7">
-        <f t="shared" ref="U28:AF28" si="104">U19/U18</f>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7">
+        <f t="shared" ref="Z28:AK28" si="104">Z19/Z18</f>
         <v>8.6946951353731011E-2</v>
       </c>
-      <c r="V28" s="7">
+      <c r="AA28" s="7">
         <f t="shared" si="104"/>
         <v>0.13978104835786268</v>
       </c>
-      <c r="W28" s="7">
+      <c r="AB28" s="7">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X28" s="7">
+      <c r="AC28" s="7">
         <f t="shared" si="104"/>
         <v>6.5518453427065027E-2</v>
       </c>
-      <c r="Y28" s="7">
-        <f t="shared" si="104"/>
-        <v>0.12181089957374908</v>
-      </c>
-      <c r="Z28" s="7">
-        <f t="shared" si="104"/>
-        <v>0.15</v>
-      </c>
-      <c r="AA28" s="7">
-        <f t="shared" si="104"/>
-        <v>0.15</v>
-      </c>
-      <c r="AB28" s="7">
-        <f t="shared" si="104"/>
-        <v>0.15</v>
-      </c>
-      <c r="AC28" s="7">
-        <f t="shared" si="104"/>
-        <v>0.15</v>
-      </c>
       <c r="AD28" s="7">
         <f t="shared" si="104"/>
-        <v>0.15</v>
+        <v>0.10811761222383794</v>
       </c>
       <c r="AE28" s="7">
         <f t="shared" si="104"/>
@@ -3465,8 +3716,28 @@
         <f t="shared" si="104"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="30" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="AG28" s="7">
+        <f t="shared" si="104"/>
+        <v>0.15</v>
+      </c>
+      <c r="AH28" s="7">
+        <f t="shared" si="104"/>
+        <v>0.15</v>
+      </c>
+      <c r="AI28" s="7">
+        <f t="shared" si="104"/>
+        <v>0.15</v>
+      </c>
+      <c r="AJ28" s="7">
+        <f t="shared" si="104"/>
+        <v>0.15</v>
+      </c>
+      <c r="AK28" s="7">
+        <f t="shared" si="104"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:126" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
@@ -3483,53 +3754,57 @@
         <v>-83569</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" ref="P30:R30" si="105">P30+Q20</f>
-        <v>-80525.394799999995</v>
+        <f>Q31-Q40</f>
+        <v>-83042</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="105"/>
-        <v>-76902.558799999999</v>
-      </c>
-      <c r="Y30" s="3">
+        <f t="shared" ref="R30" si="105">Q30+R20</f>
+        <v>-79403.013999999996</v>
+      </c>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="AD30" s="3">
         <f>R30</f>
-        <v>-76902.558799999999</v>
-      </c>
-      <c r="Z30" s="3">
-        <f>Y30+Z20</f>
-        <v>-60466.183113799998</v>
-      </c>
-      <c r="AA30" s="3">
-        <f t="shared" ref="AA30:AF30" si="106">Z30+AA20</f>
-        <v>-43139.2790011873</v>
-      </c>
-      <c r="AB30" s="3">
+        <v>-79403.013999999996</v>
+      </c>
+      <c r="AE30" s="3">
+        <f>AD30+AE20</f>
+        <v>-62355.943839</v>
+      </c>
+      <c r="AF30" s="3">
+        <f t="shared" ref="AF30:AK30" si="106">AE30+AF20</f>
+        <v>-44386.113588231499</v>
+      </c>
+      <c r="AG30" s="3">
         <f t="shared" si="106"/>
-        <v>-24888.622560944998</v>
-      </c>
-      <c r="AC30" s="3">
+        <v>-25459.120673229474</v>
+      </c>
+      <c r="AH30" s="3">
         <f t="shared" si="106"/>
-        <v>-5679.8915849920631</v>
-      </c>
-      <c r="AD30" s="3">
+        <v>-5539.425864841869</v>
+      </c>
+      <c r="AI30" s="3">
         <f t="shared" si="106"/>
-        <v>14522.369016512057</v>
-      </c>
-      <c r="AE30" s="3">
+        <v>15409.682488438346</v>
+      </c>
+      <c r="AJ30" s="3">
         <f t="shared" si="106"/>
-        <v>35754.782854739096</v>
-      </c>
-      <c r="AF30" s="3">
+        <v>37426.125329231116</v>
+      </c>
+      <c r="AK30" s="3">
         <f t="shared" si="106"/>
-        <v>58055.178798869143</v>
-      </c>
-      <c r="AH30" s="1" t="s">
+        <v>60549.070894649041</v>
+      </c>
+      <c r="AM30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AI30" s="14">
+      <c r="AN30" s="14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:126" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -3553,21 +3828,29 @@
         <f>6813+537</f>
         <v>7350</v>
       </c>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="5">
+        <f>8219+550</f>
+        <v>8769</v>
+      </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="AH31" s="1" t="s">
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AM31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AI31" s="14">
+      <c r="AN31" s="14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:126" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
@@ -3589,21 +3872,28 @@
       <c r="P32" s="5">
         <v>6197</v>
       </c>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="5">
+        <v>6213</v>
+      </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="AH32" s="1" t="s">
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AM32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AI32" s="14">
+      <c r="AN32" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="33" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>58</v>
       </c>
@@ -3625,22 +3915,29 @@
       <c r="P33" s="5">
         <v>4014</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="5">
+        <v>3714</v>
+      </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="AH33" s="1" t="s">
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AM33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AI33" s="3">
-        <f>NPV(AI32,Z20:DQ20)+N30</f>
-        <v>347927.38979726465</v>
-      </c>
-    </row>
-    <row r="34" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN33" s="3">
+        <f>NPV(AN32,AE20:DV20)+N30</f>
+        <v>362764.94873030286</v>
+      </c>
+    </row>
+    <row r="34" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
@@ -3662,22 +3959,29 @@
       <c r="P34" s="5">
         <v>14351</v>
       </c>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="5">
+        <v>16345</v>
+      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="AH34" s="1" t="s">
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AM34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI34" s="15">
-        <f>AI33/O22</f>
-        <v>126.65722235066059</v>
-      </c>
-    </row>
-    <row r="35" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN34" s="15">
+        <f>AN33/O22</f>
+        <v>132.05859072817722</v>
+      </c>
+    </row>
+    <row r="35" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
@@ -3701,22 +4005,30 @@
         <f>11593+61513</f>
         <v>73106</v>
       </c>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="5">
+        <f>10707+61499</f>
+        <v>72206</v>
+      </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
-      <c r="AH35" s="1" t="s">
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AM35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI35" s="14">
-        <f>AI34/Main!G2-1</f>
-        <v>0.58321527938325746</v>
-      </c>
-    </row>
-    <row r="36" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN35" s="14">
+        <f>AN34/Main!G2-1</f>
+        <v>0.39419964873497904</v>
+      </c>
+    </row>
+    <row r="36" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
@@ -3738,15 +4050,22 @@
       <c r="P36" s="5">
         <v>12091</v>
       </c>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="5">
+        <v>12153</v>
+      </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-    </row>
-    <row r="37" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+    </row>
+    <row r="37" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>62</v>
       </c>
@@ -3768,15 +4087,22 @@
       <c r="P37" s="5">
         <v>11360</v>
       </c>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="5">
+        <v>12220</v>
+      </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
-    </row>
-    <row r="38" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+    </row>
+    <row r="38" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>56</v>
       </c>
@@ -3803,15 +4129,23 @@
         <f>SUM(P31:P37)</f>
         <v>128469</v>
       </c>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="5">
+        <f>SUM(Q31:Q37)</f>
+        <v>131620</v>
+      </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
-    </row>
-    <row r="40" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+    </row>
+    <row r="40" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
@@ -3835,15 +4169,23 @@
         <f>81173+9746</f>
         <v>90919</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="5">
+        <f>5415+86396</f>
+        <v>91811</v>
+      </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
-    </row>
-    <row r="41" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+    </row>
+    <row r="41" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>64</v>
       </c>
@@ -3865,15 +4207,22 @@
       <c r="P41" s="5">
         <v>1647</v>
       </c>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="5">
+        <v>1610</v>
+      </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
-    </row>
-    <row r="42" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+    </row>
+    <row r="42" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>65</v>
       </c>
@@ -3895,15 +4244,22 @@
       <c r="P42" s="5">
         <v>1780</v>
       </c>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="5">
+        <v>1736</v>
+      </c>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
-    </row>
-    <row r="43" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+    </row>
+    <row r="43" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>63</v>
       </c>
@@ -3925,15 +4281,22 @@
       <c r="P43" s="5">
         <v>8705</v>
       </c>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="5">
+        <v>8598</v>
+      </c>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
-    </row>
-    <row r="44" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+    </row>
+    <row r="44" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>66</v>
       </c>
@@ -3955,15 +4318,22 @@
       <c r="P44" s="5">
         <v>5228</v>
       </c>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="5">
+        <v>5521</v>
+      </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
-    </row>
-    <row r="45" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+    </row>
+    <row r="45" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>61</v>
       </c>
@@ -3987,15 +4357,23 @@
         <f>11128+7165</f>
         <v>18293</v>
       </c>
-      <c r="Q45" s="5"/>
+      <c r="Q45" s="5">
+        <f>11335+6814</f>
+        <v>18149</v>
+      </c>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
-    </row>
-    <row r="46" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+    </row>
+    <row r="46" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>67</v>
       </c>
@@ -4017,15 +4395,22 @@
       <c r="P46" s="5">
         <v>5673</v>
       </c>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="5">
+        <v>6107</v>
+      </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
-    </row>
-    <row r="47" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+    </row>
+    <row r="47" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
@@ -4048,15 +4433,22 @@
         <f>-4246+470</f>
         <v>-3776</v>
       </c>
-      <c r="Q47" s="5"/>
+      <c r="Q47" s="5">
+        <v>-1912</v>
+      </c>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
-    </row>
-    <row r="48" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+    </row>
+    <row r="48" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
@@ -4083,15 +4475,23 @@
         <f>SUM(P40:P47)</f>
         <v>128469</v>
       </c>
-      <c r="Q48" s="5"/>
+      <c r="Q48" s="5">
+        <f>SUM(Q40:Q47)</f>
+        <v>131620</v>
+      </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
-    </row>
-    <row r="50" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+    </row>
+    <row r="50" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>72</v>
       </c>
@@ -4112,15 +4512,20 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="5">
-        <f>+X20</f>
+      <c r="X50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5">
+        <f>+AC20</f>
         <v>13293</v>
       </c>
     </row>
-    <row r="51" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>73</v>
       </c>
@@ -4141,14 +4546,19 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="5">
+      <c r="X51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5">
         <v>6717</v>
       </c>
     </row>
-    <row r="52" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>74</v>
       </c>
@@ -4169,14 +4579,19 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="5">
+      <c r="X52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5">
         <v>1972</v>
       </c>
     </row>
-    <row r="53" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>75</v>
       </c>
@@ -4197,14 +4612,19 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="5">
+      <c r="X53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5">
         <v>1150</v>
       </c>
     </row>
-    <row r="54" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>61</v>
       </c>
@@ -4225,14 +4645,19 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="5">
+      <c r="X54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5">
         <v>-1146</v>
       </c>
     </row>
-    <row r="55" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>76</v>
       </c>
@@ -4253,14 +4678,19 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="5">
+      <c r="X55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5">
         <v>2613</v>
       </c>
     </row>
-    <row r="56" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>77</v>
       </c>
@@ -4281,14 +4711,19 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="5">
+      <c r="X56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5">
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>78</v>
       </c>
@@ -4309,15 +4744,20 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
-      <c r="X57" s="5">
+      <c r="X57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5">
         <f>-874+11-733-398+7</f>
         <v>-1987</v>
       </c>
     </row>
-    <row r="58" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>79</v>
       </c>
@@ -4338,19 +4778,24 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
       <c r="U58" s="5"/>
-      <c r="V58" s="5">
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5">
         <v>13139</v>
       </c>
-      <c r="W58" s="5">
+      <c r="AB58" s="5">
         <v>15887</v>
       </c>
-      <c r="X58" s="5">
-        <f>SUM(X51:X57)</f>
+      <c r="AC58" s="5">
+        <f>SUM(AC51:AC57)</f>
         <v>9539</v>
       </c>
     </row>
-    <row r="60" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>80</v>
       </c>
@@ -4371,18 +4816,23 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
       <c r="U60" s="5"/>
-      <c r="V60" s="5">
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5">
         <v>-1564</v>
       </c>
-      <c r="W60" s="5">
+      <c r="AB60" s="5">
         <v>-2135</v>
       </c>
-      <c r="X60" s="5">
+      <c r="AC60" s="5">
         <v>-4511</v>
       </c>
     </row>
-    <row r="61" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>81</v>
       </c>
@@ -4403,14 +4853,19 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
-      <c r="X61" s="5">
+      <c r="X61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5">
         <v>-148</v>
       </c>
     </row>
-    <row r="62" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>82</v>
       </c>
@@ -4431,15 +4886,20 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="5">
+      <c r="X62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5">
         <f>-10272+19788+6363</f>
         <v>15879</v>
       </c>
     </row>
-    <row r="63" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -4457,11 +4917,16 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
-      <c r="X63" s="5">
-        <f>SUM(X60:X62)</f>
+      <c r="X63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5">
+        <f>SUM(AC60:AC62)</f>
         <v>11220</v>
       </c>
     </row>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE530D-E6CD-4F4F-8092-59F4A5240656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D2952-4898-48C0-AEEE-A06511DF03D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14535" yWindow="1770" windowWidth="19605" windowHeight="15375" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -380,9 +380,6 @@
     <t xml:space="preserve">  Cloud Services</t>
   </si>
   <si>
-    <t>Q124</t>
-  </si>
-  <si>
     <t xml:space="preserve">    NetSuite</t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>RPO</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -1002,18 +1002,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD04C5-FAB4-8B42-B6A2-F2686B3BB573}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.5703125" style="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.5703125" style="1"/>
+    <col min="1" max="6" width="8.54296875" style="1"/>
+    <col min="7" max="7" width="8.26953125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
@@ -1021,78 +1021,80 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>2834</v>
+        <v>2808.8330000000001</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="3">
         <f>G3*G2</f>
-        <v>444938</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+        <v>575810.76500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <v>10661</v>
+        <f>10786+417</f>
+        <v>11203</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <v>86869</v>
+        <f>7271+85297</f>
+        <v>92568</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3">
         <f>G4-G5+G6</f>
-        <v>521146</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+        <v>657175.76500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1106,34 +1108,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
   <dimension ref="A1:DZ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AF12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK18" sqref="AK18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="4" customWidth="1"/>
-    <col min="9" max="16" width="9.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16" width="9.7265625" style="4" customWidth="1"/>
     <col min="17" max="28" width="9" style="4" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="1"/>
-    <col min="30" max="31" width="8.5703125" style="4"/>
-    <col min="32" max="33" width="9.5703125" style="4" customWidth="1"/>
-    <col min="34" max="43" width="8.5703125" style="1"/>
-    <col min="44" max="44" width="9.28515625" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="8.5703125" style="1"/>
+    <col min="29" max="29" width="8.54296875" style="1"/>
+    <col min="30" max="31" width="8.54296875" style="4"/>
+    <col min="32" max="33" width="9.54296875" style="4" customWidth="1"/>
+    <col min="34" max="43" width="8.54296875" style="1"/>
+    <col min="44" max="44" width="9.26953125" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1261,7 +1263,7 @@
         <v>47634</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1377,9 +1379,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U4" s="5">
         <v>80000</v>
@@ -1406,7 +1408,7 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AC5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1417,9 +1419,9 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P6" s="4">
         <v>600</v>
@@ -1455,9 +1457,9 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P7" s="4">
         <v>600</v>
@@ -1491,9 +1493,9 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O8" s="5">
         <v>2700</v>
@@ -1532,9 +1534,9 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O9" s="5">
         <v>900</v>
@@ -1573,7 +1575,7 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AC10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -1584,7 +1586,7 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
@@ -1628,7 +1630,7 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
     </row>
-    <row r="12" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>101</v>
       </c>
@@ -1690,7 +1692,7 @@
       <c r="AN12" s="17"/>
       <c r="AO12" s="17"/>
     </row>
-    <row r="13" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>30174</v>
       </c>
     </row>
-    <row r="14" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>34</v>
       </c>
@@ -1870,7 +1872,7 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="15" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1956,7 +1958,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="18" spans="2:130" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:130" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>65495.91312165311</v>
       </c>
     </row>
-    <row r="19" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>13099.182624330622</v>
       </c>
     </row>
-    <row r="20" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>52396.730497322489</v>
       </c>
     </row>
-    <row r="21" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2548,7 @@
         <v>2119</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" ref="Y21:Z23" si="24">+V21</f>
+        <f t="shared" ref="Z21:Z23" si="24">+V21</f>
         <v>2114</v>
       </c>
       <c r="AA21" s="5"/>
@@ -2601,7 +2603,7 @@
         <v>10145.191816678444</v>
       </c>
     </row>
-    <row r="22" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>9312.5676684014888</v>
       </c>
     </row>
-    <row r="23" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2843,7 +2845,7 @@
         <v>1692.9017209769693</v>
       </c>
     </row>
-    <row r="24" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>21150.661206056902</v>
       </c>
     </row>
-    <row r="25" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>31246.069291265587</v>
       </c>
     </row>
-    <row r="26" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>1402.4726825743014</v>
       </c>
     </row>
-    <row r="27" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>32648.541973839889</v>
       </c>
     </row>
-    <row r="28" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3548,7 +3550,7 @@
         <v>4897.2812960759829</v>
       </c>
     </row>
-    <row r="29" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>67279.845206198283</v>
       </c>
     </row>
-    <row r="30" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>10.03208700506603</v>
       </c>
     </row>
-    <row r="31" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>2766.25</v>
       </c>
     </row>
-    <row r="32" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4440,9 +4442,9 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -4462,7 +4464,7 @@
         <v>0.08</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
@@ -4481,7 +4483,7 @@
       <c r="AN35" s="13"/>
       <c r="AO35" s="13"/>
     </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
@@ -4617,7 +4619,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>90</v>
       </c>
@@ -4693,7 +4695,7 @@
         <v>0.47706899258322671</v>
       </c>
     </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
@@ -4817,7 +4819,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
@@ -4903,7 +4905,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="43" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>446094.64697631676</v>
       </c>
     </row>
-    <row r="44" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>162.39339169141491</v>
       </c>
     </row>
-    <row r="45" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
@@ -5204,10 +5206,10 @@
       </c>
       <c r="AR45" s="14">
         <f>AR44/Main!G2-1</f>
-        <v>3.4352813321113951E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.20783711370041513</v>
+      </c>
+    </row>
+    <row r="46" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
@@ -5258,7 +5260,7 @@
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
     </row>
-    <row r="47" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
@@ -5309,7 +5311,7 @@
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
     </row>
-    <row r="48" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>56</v>
       </c>
@@ -5374,7 +5376,7 @@
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
     </row>
-    <row r="50" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
@@ -5433,7 +5435,7 @@
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
     </row>
-    <row r="51" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
@@ -5484,7 +5486,7 @@
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
     </row>
-    <row r="52" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
@@ -5535,7 +5537,7 @@
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
     </row>
-    <row r="53" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -5586,7 +5588,7 @@
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
     </row>
-    <row r="54" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
@@ -5637,7 +5639,7 @@
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
     </row>
-    <row r="55" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>61</v>
       </c>
@@ -5696,7 +5698,7 @@
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
     </row>
-    <row r="56" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>67</v>
       </c>
@@ -5747,7 +5749,7 @@
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
     </row>
-    <row r="57" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>68</v>
       </c>
@@ -5799,7 +5801,7 @@
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
     </row>
-    <row r="58" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>69</v>
       </c>
@@ -5861,7 +5863,7 @@
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
     </row>
-    <row r="60" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>72</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>13293</v>
       </c>
     </row>
-    <row r="61" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -5964,7 +5966,7 @@
         <v>6717</v>
       </c>
     </row>
-    <row r="62" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="63" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>61</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>-1146</v>
       </c>
     </row>
-    <row r="65" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>76</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="66" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>77</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>78</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>-1987</v>
       </c>
     </row>
-    <row r="68" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>79</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>9539</v>
       </c>
     </row>
-    <row r="70" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>80</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>-4511</v>
       </c>
     </row>
-    <row r="71" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>81</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="72" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>82</v>
       </c>
@@ -6478,9 +6480,9 @@
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
     </row>
-    <row r="73" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -6528,7 +6530,7 @@
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
     </row>
-    <row r="74" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -6560,7 +6562,7 @@
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
     </row>
-    <row r="75" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>82</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>15879</v>
       </c>
     </row>
-    <row r="76" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -6633,9 +6635,9 @@
         <v>11220</v>
       </c>
     </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S77" s="5">
         <f>-150+308-1060</f>
@@ -6658,9 +6660,9 @@
         <v>-822</v>
       </c>
     </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S78" s="5">
         <v>-1091</v>
@@ -6681,7 +6683,7 @@
         <v>-1103</v>
       </c>
     </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>-2399</v>
       </c>
     </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>77</v>
       </c>
@@ -6729,9 +6731,9 @@
         <v>-261</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S81" s="5">
         <f>SUM(S77:S80)</f>
@@ -6754,9 +6756,9 @@
         <v>-4585</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S82" s="4">
         <v>-36</v>
@@ -6777,9 +6779,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S83" s="5">
         <f>+S81+S82+S73+S68</f>
